--- a/myapp/files/80_distances/distances_pValue_Risks.xlsx
+++ b/myapp/files/80_distances/distances_pValue_Risks.xlsx
@@ -786,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3968</v>
+        <v>0.3969</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.335</v>
+        <v>0.3348</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0211</v>
+        <v>0.0212</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0066</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="21">
@@ -1006,10 +1006,10 @@
         <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.011</v>
+        <v>0.0108</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7018</v>
+        <v>0.7154</v>
       </c>
     </row>
     <row r="22">
@@ -1146,10 +1146,10 @@
         <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0746</v>
+        <v>0.0745</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8304</v>
+        <v>0.8319</v>
       </c>
     </row>
     <row r="29">
@@ -1266,10 +1266,10 @@
         <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1825</v>
+        <v>0.1826</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0189</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="35">
@@ -1286,10 +1286,10 @@
         <v>14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2065</v>
+        <v>0.2062</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0051</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="36">
@@ -1346,7 +1346,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.19</v>
+        <v>0.1901</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1366,10 +1366,10 @@
         <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1696</v>
+        <v>0.1698</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0024</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="40">
@@ -1426,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5156</v>
+        <v>0.5157</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6152</v>
+        <v>0.6151</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2307</v>
+        <v>0.2306</v>
       </c>
       <c r="F52" t="n">
         <v>0.0009</v>
@@ -1646,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2986</v>
+        <v>0.2992</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0333</v>
+        <v>0.0336</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0158</v>
+        <v>0.0156</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2228</v>
+        <v>0.2343</v>
       </c>
     </row>
     <row r="64">
@@ -1986,10 +1986,10 @@
         <v>14</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0832</v>
+        <v>0.083</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7016</v>
+        <v>0.7037</v>
       </c>
     </row>
     <row r="71">
@@ -2006,10 +2006,10 @@
         <v>14</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0573</v>
+        <v>0.0574</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9721</v>
+        <v>0.9714</v>
       </c>
     </row>
     <row r="72">
@@ -2126,10 +2126,10 @@
         <v>14</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2014</v>
+        <v>0.2019</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0058</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="78">
@@ -2206,10 +2206,10 @@
         <v>14</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1695</v>
+        <v>0.17</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0027</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="82">
@@ -2266,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5655</v>
+        <v>0.5654</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>15</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7484</v>
+        <v>0.7485</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>14</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2569</v>
+        <v>0.2571</v>
       </c>
       <c r="F94" t="n">
         <v>0.0001</v>
@@ -2486,7 +2486,7 @@
         <v>14</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4376</v>
+        <v>0.4378</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>14</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0059</v>
+        <v>0.0058</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9987</v>
+        <v>0.9991</v>
       </c>
     </row>
     <row r="106">
@@ -2826,10 +2826,10 @@
         <v>14</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0831</v>
+        <v>0.0834</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7025</v>
+        <v>0.6979</v>
       </c>
     </row>
     <row r="113">
@@ -2846,10 +2846,10 @@
         <v>14</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0942</v>
+        <v>0.0944</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5458</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="114">
@@ -2946,10 +2946,10 @@
         <v>14</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1847</v>
+        <v>0.1849</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0157</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="119">
@@ -2966,7 +2966,7 @@
         <v>14</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2431</v>
+        <v>0.2434</v>
       </c>
       <c r="F119" t="n">
         <v>0.0004</v>
@@ -3026,7 +3026,7 @@
         <v>14</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1734</v>
+        <v>0.1737</v>
       </c>
       <c r="F122" t="n">
         <v>0.0001</v>
@@ -3046,7 +3046,7 @@
         <v>14</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2112</v>
+        <v>0.2115</v>
       </c>
       <c r="F123" t="n">
         <v>0.0001</v>
@@ -3106,7 +3106,7 @@
         <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>0.56</v>
+        <v>0.5596</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>15</v>
       </c>
       <c r="E127" t="n">
-        <v>0.801</v>
+        <v>0.8011</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>14</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2601</v>
+        <v>0.26</v>
       </c>
       <c r="F136" t="n">
         <v>0.0002</v>
@@ -3326,7 +3326,7 @@
         <v>14</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3574</v>
+        <v>0.3572</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0251</v>
+        <v>0.0249</v>
       </c>
       <c r="F146" t="n">
         <v>0.0001</v>
@@ -3526,10 +3526,10 @@
         <v>14</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0063</v>
+        <v>0.0062</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9971</v>
+        <v>0.9975</v>
       </c>
     </row>
     <row r="148">
@@ -3666,10 +3666,10 @@
         <v>14</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0888</v>
+        <v>0.0887</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6397</v>
+        <v>0.6401</v>
       </c>
     </row>
     <row r="155">
@@ -3689,7 +3689,7 @@
         <v>0.0649</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9297</v>
+        <v>0.9293</v>
       </c>
     </row>
     <row r="156">
@@ -3786,10 +3786,10 @@
         <v>14</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1887</v>
+        <v>0.1885</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0137</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="161">
@@ -3866,7 +3866,7 @@
         <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1963</v>
+        <v>0.1961</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>14</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1452</v>
+        <v>0.1451</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0138</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="166">
@@ -3946,7 +3946,7 @@
         <v>15</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5679</v>
+        <v>0.568</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>15</v>
       </c>
       <c r="E169" t="n">
-        <v>0.7788</v>
+        <v>0.7789</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>14</v>
       </c>
       <c r="E179" t="n">
-        <v>0.409</v>
+        <v>0.4091</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -4346,7 +4346,7 @@
         <v>14</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0363</v>
+        <v>0.0365</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0.0139</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3621</v>
+        <v>0.3666</v>
       </c>
     </row>
     <row r="190">
@@ -4506,10 +4506,10 @@
         <v>14</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0967</v>
+        <v>0.0964</v>
       </c>
       <c r="F196" t="n">
-        <v>0.5205</v>
+        <v>0.5249</v>
       </c>
     </row>
     <row r="197">
@@ -4526,10 +4526,10 @@
         <v>14</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0492</v>
+        <v>0.0493</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9954</v>
+        <v>0.9952</v>
       </c>
     </row>
     <row r="198">
@@ -4646,10 +4646,10 @@
         <v>14</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1639</v>
+        <v>0.1638</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0442</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="204">
@@ -4706,10 +4706,10 @@
         <v>14</v>
       </c>
       <c r="E206" t="n">
-        <v>0.1404</v>
+        <v>0.1406</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0037</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="207">
@@ -4726,10 +4726,10 @@
         <v>14</v>
       </c>
       <c r="E207" t="n">
-        <v>0.1558</v>
+        <v>0.1557</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0068</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="208">
@@ -4786,7 +4786,7 @@
         <v>15</v>
       </c>
       <c r="E210" t="n">
-        <v>0.6739</v>
+        <v>0.6742</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>15</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6092</v>
+        <v>0.6093</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>14</v>
       </c>
       <c r="E220" t="n">
-        <v>0.2981</v>
+        <v>0.2979</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -5186,10 +5186,10 @@
         <v>14</v>
       </c>
       <c r="E230" t="n">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="F230" t="n">
-        <v>0.6471</v>
+        <v>0.5843</v>
       </c>
     </row>
     <row r="231">
@@ -5206,10 +5206,10 @@
         <v>14</v>
       </c>
       <c r="E231" t="n">
-        <v>0.0229</v>
+        <v>0.0231</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0354</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="232">
@@ -5346,10 +5346,10 @@
         <v>14</v>
       </c>
       <c r="E238" t="n">
-        <v>0.1066</v>
+        <v>0.1063</v>
       </c>
       <c r="F238" t="n">
-        <v>0.4515</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="239">
@@ -5366,10 +5366,10 @@
         <v>14</v>
       </c>
       <c r="E239" t="n">
-        <v>0.067</v>
+        <v>0.0674</v>
       </c>
       <c r="F239" t="n">
-        <v>0.932</v>
+        <v>0.9295</v>
       </c>
     </row>
     <row r="240">
@@ -5466,10 +5466,10 @@
         <v>14</v>
       </c>
       <c r="E244" t="n">
-        <v>0.2058</v>
+        <v>0.2056</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0081</v>
+        <v>0.0082</v>
       </c>
     </row>
     <row r="245">
@@ -5546,7 +5546,7 @@
         <v>14</v>
       </c>
       <c r="E248" t="n">
-        <v>0.1735</v>
+        <v>0.1733</v>
       </c>
       <c r="F248" t="n">
         <v>0.0007</v>
@@ -5626,7 +5626,7 @@
         <v>15</v>
       </c>
       <c r="E252" t="n">
-        <v>0.561</v>
+        <v>0.5608</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>15</v>
       </c>
       <c r="E253" t="n">
-        <v>0.7637</v>
+        <v>0.764</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -5826,10 +5826,10 @@
         <v>14</v>
       </c>
       <c r="E262" t="n">
-        <v>0.19</v>
+        <v>0.1902</v>
       </c>
       <c r="F262" t="n">
-        <v>0.0148</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="263">
@@ -5846,7 +5846,7 @@
         <v>14</v>
       </c>
       <c r="E263" t="n">
-        <v>0.2735</v>
+        <v>0.2736</v>
       </c>
       <c r="F263" t="n">
         <v>0.0001</v>
@@ -6026,7 +6026,7 @@
         <v>14</v>
       </c>
       <c r="E272" t="n">
-        <v>0.0529</v>
+        <v>0.0526</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -6046,10 +6046,10 @@
         <v>14</v>
       </c>
       <c r="E273" t="n">
-        <v>0.0146</v>
+        <v>0.0147</v>
       </c>
       <c r="F273" t="n">
-        <v>0.3544</v>
+        <v>0.3475</v>
       </c>
     </row>
     <row r="274">
@@ -6186,10 +6186,10 @@
         <v>14</v>
       </c>
       <c r="E280" t="n">
-        <v>0.0703</v>
+        <v>0.0704</v>
       </c>
       <c r="F280" t="n">
-        <v>0.8903</v>
+        <v>0.8886</v>
       </c>
     </row>
     <row r="281">
@@ -6206,10 +6206,10 @@
         <v>14</v>
       </c>
       <c r="E281" t="n">
-        <v>0.0783</v>
+        <v>0.0782</v>
       </c>
       <c r="F281" t="n">
-        <v>0.7982</v>
+        <v>0.8004</v>
       </c>
     </row>
     <row r="282">
@@ -6386,7 +6386,7 @@
         <v>14</v>
       </c>
       <c r="E290" t="n">
-        <v>0.1927</v>
+        <v>0.1924</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
@@ -6406,7 +6406,7 @@
         <v>14</v>
       </c>
       <c r="E291" t="n">
-        <v>0.1842</v>
+        <v>0.1844</v>
       </c>
       <c r="F291" t="n">
         <v>0.001</v>
@@ -6466,7 +6466,7 @@
         <v>15</v>
       </c>
       <c r="E294" t="n">
-        <v>0.6636</v>
+        <v>0.6638</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>15</v>
       </c>
       <c r="E295" t="n">
-        <v>0.9182</v>
+        <v>0.9184</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
@@ -6666,7 +6666,7 @@
         <v>14</v>
       </c>
       <c r="E304" t="n">
-        <v>0.3452</v>
+        <v>0.3454</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>14</v>
       </c>
       <c r="E305" t="n">
-        <v>0.2967</v>
+        <v>0.2966</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -6866,7 +6866,7 @@
         <v>14</v>
       </c>
       <c r="E314" t="n">
-        <v>0.0504</v>
+        <v>0.0503</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>0.021</v>
       </c>
       <c r="F315" t="n">
-        <v>0.0278</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="316">
@@ -7026,10 +7026,10 @@
         <v>14</v>
       </c>
       <c r="E322" t="n">
-        <v>0.0934</v>
+        <v>0.0936</v>
       </c>
       <c r="F322" t="n">
-        <v>0.5468</v>
+        <v>0.5452</v>
       </c>
     </row>
     <row r="323">
@@ -7046,10 +7046,10 @@
         <v>14</v>
       </c>
       <c r="E323" t="n">
-        <v>0.0742</v>
+        <v>0.0741</v>
       </c>
       <c r="F323" t="n">
-        <v>0.8163</v>
+        <v>0.818</v>
       </c>
     </row>
     <row r="324">
@@ -7146,10 +7146,10 @@
         <v>14</v>
       </c>
       <c r="E328" t="n">
-        <v>0.1979</v>
+        <v>0.1977</v>
       </c>
       <c r="F328" t="n">
-        <v>0.0066</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="329">
@@ -7166,7 +7166,7 @@
         <v>14</v>
       </c>
       <c r="E329" t="n">
-        <v>0.1947</v>
+        <v>0.1946</v>
       </c>
       <c r="F329" t="n">
         <v>0.0079</v>
@@ -7226,7 +7226,7 @@
         <v>14</v>
       </c>
       <c r="E332" t="n">
-        <v>0.2018</v>
+        <v>0.202</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <v>14</v>
       </c>
       <c r="E333" t="n">
-        <v>0.1997</v>
+        <v>0.1996</v>
       </c>
       <c r="F333" t="n">
         <v>0.0001</v>
@@ -7306,7 +7306,7 @@
         <v>15</v>
       </c>
       <c r="E336" t="n">
-        <v>0.5699</v>
+        <v>0.5697</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>15</v>
       </c>
       <c r="E337" t="n">
-        <v>0.6362</v>
+        <v>0.636</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>14</v>
       </c>
       <c r="E346" t="n">
-        <v>0.2799</v>
+        <v>0.28</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>14</v>
       </c>
       <c r="E347" t="n">
-        <v>0.3225</v>
+        <v>0.3222</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>14</v>
       </c>
       <c r="E356" t="n">
-        <v>0.0463</v>
+        <v>0.046</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
@@ -7726,10 +7726,10 @@
         <v>14</v>
       </c>
       <c r="E357" t="n">
-        <v>0.0195</v>
+        <v>0.0196</v>
       </c>
       <c r="F357" t="n">
-        <v>0.0575</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="358">
@@ -7866,10 +7866,10 @@
         <v>14</v>
       </c>
       <c r="E364" t="n">
-        <v>0.0853</v>
+        <v>0.0854</v>
       </c>
       <c r="F364" t="n">
-        <v>0.6887</v>
+        <v>0.6873</v>
       </c>
     </row>
     <row r="365">
@@ -7886,10 +7886,10 @@
         <v>14</v>
       </c>
       <c r="E365" t="n">
-        <v>0.0488</v>
+        <v>0.0491</v>
       </c>
       <c r="F365" t="n">
-        <v>0.9962</v>
+        <v>0.9959</v>
       </c>
     </row>
     <row r="366">
@@ -7986,7 +7986,7 @@
         <v>14</v>
       </c>
       <c r="E370" t="n">
-        <v>0.2298</v>
+        <v>0.2297</v>
       </c>
       <c r="F370" t="n">
         <v>0.0012</v>
@@ -8006,10 +8006,10 @@
         <v>14</v>
       </c>
       <c r="E371" t="n">
-        <v>0.1595</v>
+        <v>0.1597</v>
       </c>
       <c r="F371" t="n">
-        <v>0.0568</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="372">
@@ -8086,7 +8086,7 @@
         <v>14</v>
       </c>
       <c r="E375" t="n">
-        <v>0.1602</v>
+        <v>0.1601</v>
       </c>
       <c r="F375" t="n">
         <v>0.0023</v>
@@ -8146,7 +8146,7 @@
         <v>15</v>
       </c>
       <c r="E378" t="n">
-        <v>0.681</v>
+        <v>0.6811</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
@@ -8166,7 +8166,7 @@
         <v>15</v>
       </c>
       <c r="E379" t="n">
-        <v>0.8222</v>
+        <v>0.8219</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
@@ -8346,10 +8346,10 @@
         <v>14</v>
       </c>
       <c r="E388" t="n">
-        <v>0.21</v>
+        <v>0.2105</v>
       </c>
       <c r="F388" t="n">
-        <v>0.0054</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="389">
@@ -8366,7 +8366,7 @@
         <v>14</v>
       </c>
       <c r="E389" t="n">
-        <v>0.4025</v>
+        <v>0.4026</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>14</v>
       </c>
       <c r="E398" t="n">
-        <v>0.0176</v>
+        <v>0.0177</v>
       </c>
       <c r="F398" t="n">
-        <v>0.0437</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="399">
@@ -8566,7 +8566,7 @@
         <v>14</v>
       </c>
       <c r="E399" t="n">
-        <v>0.0472</v>
+        <v>0.0473</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
@@ -8706,10 +8706,10 @@
         <v>14</v>
       </c>
       <c r="E406" t="n">
-        <v>0.0672</v>
+        <v>0.0669</v>
       </c>
       <c r="F406" t="n">
-        <v>0.9228</v>
+        <v>0.9253</v>
       </c>
     </row>
     <row r="407">
@@ -8726,10 +8726,10 @@
         <v>14</v>
       </c>
       <c r="E407" t="n">
-        <v>0.0746</v>
+        <v>0.0744</v>
       </c>
       <c r="F407" t="n">
-        <v>0.8495</v>
+        <v>0.8526</v>
       </c>
     </row>
     <row r="408">
@@ -8826,10 +8826,10 @@
         <v>14</v>
       </c>
       <c r="E412" t="n">
-        <v>0.1844</v>
+        <v>0.184</v>
       </c>
       <c r="F412" t="n">
-        <v>0.0225</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="413">
@@ -8846,7 +8846,7 @@
         <v>14</v>
       </c>
       <c r="E413" t="n">
-        <v>0.3224</v>
+        <v>0.3222</v>
       </c>
       <c r="F413" t="n">
         <v>0</v>
@@ -8906,10 +8906,10 @@
         <v>14</v>
       </c>
       <c r="E416" t="n">
-        <v>0.1407</v>
+        <v>0.1405</v>
       </c>
       <c r="F416" t="n">
-        <v>0.0088</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="417">
@@ -8926,7 +8926,7 @@
         <v>14</v>
       </c>
       <c r="E417" t="n">
-        <v>0.252</v>
+        <v>0.2518</v>
       </c>
       <c r="F417" t="n">
         <v>0</v>
@@ -8986,7 +8986,7 @@
         <v>15</v>
       </c>
       <c r="E420" t="n">
-        <v>0.555</v>
+        <v>0.5544</v>
       </c>
       <c r="F420" t="n">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>14</v>
       </c>
       <c r="E430" t="n">
-        <v>0.2974</v>
+        <v>0.2975</v>
       </c>
       <c r="F430" t="n">
         <v>0</v>
@@ -9206,7 +9206,7 @@
         <v>14</v>
       </c>
       <c r="E431" t="n">
-        <v>0.2446</v>
+        <v>0.2448</v>
       </c>
       <c r="F431" t="n">
         <v>0.0004</v>
@@ -9406,7 +9406,7 @@
         <v>14</v>
       </c>
       <c r="E441" t="n">
-        <v>0.0023</v>
+        <v>0.0021</v>
       </c>
       <c r="F441" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         <v>0.0892</v>
       </c>
       <c r="F448" t="n">
-        <v>0.6241</v>
+        <v>0.6245</v>
       </c>
     </row>
     <row r="449">
@@ -9566,10 +9566,10 @@
         <v>14</v>
       </c>
       <c r="E449" t="n">
-        <v>0.0525</v>
+        <v>0.0521</v>
       </c>
       <c r="F449" t="n">
-        <v>0.9897</v>
+        <v>0.9905</v>
       </c>
     </row>
     <row r="450">
@@ -9666,7 +9666,7 @@
         <v>14</v>
       </c>
       <c r="E454" t="n">
-        <v>0.1979</v>
+        <v>0.1978</v>
       </c>
       <c r="F454" t="n">
         <v>0.0077</v>
@@ -9686,10 +9686,10 @@
         <v>14</v>
       </c>
       <c r="E455" t="n">
-        <v>0.1739</v>
+        <v>0.1736</v>
       </c>
       <c r="F455" t="n">
-        <v>0.0273</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="456">
@@ -9746,7 +9746,7 @@
         <v>14</v>
       </c>
       <c r="E458" t="n">
-        <v>0.1702</v>
+        <v>0.1703</v>
       </c>
       <c r="F458" t="n">
         <v>0.0003</v>
@@ -9766,10 +9766,10 @@
         <v>14</v>
       </c>
       <c r="E459" t="n">
-        <v>0.1535</v>
+        <v>0.1539</v>
       </c>
       <c r="F459" t="n">
-        <v>0.0097</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="460">
@@ -9826,7 +9826,7 @@
         <v>15</v>
       </c>
       <c r="E462" t="n">
-        <v>0.579</v>
+        <v>0.5789</v>
       </c>
       <c r="F462" t="n">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>15</v>
       </c>
       <c r="E463" t="n">
-        <v>0.8166</v>
+        <v>0.8167</v>
       </c>
       <c r="F463" t="n">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>14</v>
       </c>
       <c r="E473" t="n">
-        <v>0.3094</v>
+        <v>0.3093</v>
       </c>
       <c r="F473" t="n">
         <v>0</v>
@@ -10246,10 +10246,10 @@
         <v>14</v>
       </c>
       <c r="E483" t="n">
-        <v>0.025</v>
+        <v>0.0249</v>
       </c>
       <c r="F483" t="n">
-        <v>0.0078</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="484">
@@ -10389,7 +10389,7 @@
         <v>0.0996</v>
       </c>
       <c r="F490" t="n">
-        <v>0.4639</v>
+        <v>0.4635</v>
       </c>
     </row>
     <row r="491">
@@ -10406,10 +10406,10 @@
         <v>14</v>
       </c>
       <c r="E491" t="n">
-        <v>0.0669</v>
+        <v>0.0671</v>
       </c>
       <c r="F491" t="n">
-        <v>0.8991</v>
+        <v>0.8975</v>
       </c>
     </row>
     <row r="492">
@@ -10526,7 +10526,7 @@
         <v>14</v>
       </c>
       <c r="E497" t="n">
-        <v>0.1998</v>
+        <v>0.1997</v>
       </c>
       <c r="F497" t="n">
         <v>0.0059</v>
@@ -10586,7 +10586,7 @@
         <v>14</v>
       </c>
       <c r="E500" t="n">
-        <v>0.1876</v>
+        <v>0.1875</v>
       </c>
       <c r="F500" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>14</v>
       </c>
       <c r="E501" t="n">
-        <v>0.1537</v>
+        <v>0.1536</v>
       </c>
       <c r="F501" t="n">
         <v>0.0055</v>
@@ -10666,7 +10666,7 @@
         <v>15</v>
       </c>
       <c r="E504" t="n">
-        <v>0.7436</v>
+        <v>0.7435</v>
       </c>
       <c r="F504" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>15</v>
       </c>
       <c r="E505" t="n">
-        <v>0.891</v>
+        <v>0.8908</v>
       </c>
       <c r="F505" t="n">
         <v>0</v>
@@ -10866,7 +10866,7 @@
         <v>14</v>
       </c>
       <c r="E514" t="n">
-        <v>0.2238</v>
+        <v>0.2242</v>
       </c>
       <c r="F514" t="n">
         <v>0.0016</v>
@@ -10886,7 +10886,7 @@
         <v>14</v>
       </c>
       <c r="E515" t="n">
-        <v>0.2548</v>
+        <v>0.2545</v>
       </c>
       <c r="F515" t="n">
         <v>0.0002</v>
@@ -11086,10 +11086,10 @@
         <v>14</v>
       </c>
       <c r="E525" t="n">
-        <v>0.0227</v>
+        <v>0.0224</v>
       </c>
       <c r="F525" t="n">
-        <v>0.0163</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="526">
@@ -11226,10 +11226,10 @@
         <v>14</v>
       </c>
       <c r="E532" t="n">
-        <v>0.0745</v>
+        <v>0.0747</v>
       </c>
       <c r="F532" t="n">
-        <v>0.8255</v>
+        <v>0.8233</v>
       </c>
     </row>
     <row r="533">
@@ -11246,10 +11246,10 @@
         <v>14</v>
       </c>
       <c r="E533" t="n">
-        <v>0.053</v>
+        <v>0.0531</v>
       </c>
       <c r="F533" t="n">
-        <v>0.9885</v>
+        <v>0.9882</v>
       </c>
     </row>
     <row r="534">
@@ -11346,10 +11346,10 @@
         <v>14</v>
       </c>
       <c r="E538" t="n">
-        <v>0.1936</v>
+        <v>0.1933</v>
       </c>
       <c r="F538" t="n">
-        <v>0.0098</v>
+        <v>0.0099</v>
       </c>
     </row>
     <row r="539">
@@ -11366,10 +11366,10 @@
         <v>14</v>
       </c>
       <c r="E539" t="n">
-        <v>0.2069</v>
+        <v>0.2067</v>
       </c>
       <c r="F539" t="n">
-        <v>0.005</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="540">
@@ -11426,7 +11426,7 @@
         <v>14</v>
       </c>
       <c r="E542" t="n">
-        <v>0.1862</v>
+        <v>0.186</v>
       </c>
       <c r="F542" t="n">
         <v>0</v>
@@ -11446,7 +11446,7 @@
         <v>14</v>
       </c>
       <c r="E543" t="n">
-        <v>0.176</v>
+        <v>0.1758</v>
       </c>
       <c r="F543" t="n">
         <v>0.001</v>
@@ -11506,7 +11506,7 @@
         <v>15</v>
       </c>
       <c r="E546" t="n">
-        <v>0.5605</v>
+        <v>0.5603</v>
       </c>
       <c r="F546" t="n">
         <v>0</v>
@@ -11526,7 +11526,7 @@
         <v>15</v>
       </c>
       <c r="E547" t="n">
-        <v>0.6676</v>
+        <v>0.6674</v>
       </c>
       <c r="F547" t="n">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>14</v>
       </c>
       <c r="E556" t="n">
-        <v>0.2836</v>
+        <v>0.2839</v>
       </c>
       <c r="F556" t="n">
         <v>0</v>
@@ -11726,7 +11726,7 @@
         <v>14</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2765</v>
+        <v>0.2767</v>
       </c>
       <c r="F557" t="n">
         <v>0</v>
@@ -11906,7 +11906,7 @@
         <v>14</v>
       </c>
       <c r="E566" t="n">
-        <v>0.0249</v>
+        <v>0.0251</v>
       </c>
       <c r="F566" t="n">
         <v>0.0004</v>
@@ -11926,10 +11926,10 @@
         <v>14</v>
       </c>
       <c r="E567" t="n">
-        <v>0.0191</v>
+        <v>0.0193</v>
       </c>
       <c r="F567" t="n">
-        <v>0.0777</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="568">
@@ -12066,10 +12066,10 @@
         <v>14</v>
       </c>
       <c r="E574" t="n">
-        <v>0.0571</v>
+        <v>0.0572</v>
       </c>
       <c r="F574" t="n">
-        <v>0.9749</v>
+        <v>0.9744</v>
       </c>
     </row>
     <row r="575">
@@ -12089,7 +12089,7 @@
         <v>0.0572</v>
       </c>
       <c r="F575" t="n">
-        <v>0.9744</v>
+        <v>0.9745</v>
       </c>
     </row>
     <row r="576">
@@ -12186,10 +12186,10 @@
         <v>14</v>
       </c>
       <c r="E580" t="n">
-        <v>0.1569</v>
+        <v>0.1572</v>
       </c>
       <c r="F580" t="n">
-        <v>0.0608</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="581">
@@ -12206,7 +12206,7 @@
         <v>14</v>
       </c>
       <c r="E581" t="n">
-        <v>0.2094</v>
+        <v>0.2095</v>
       </c>
       <c r="F581" t="n">
         <v>0.0039</v>
@@ -12266,7 +12266,7 @@
         <v>14</v>
       </c>
       <c r="E584" t="n">
-        <v>0.1801</v>
+        <v>0.1803</v>
       </c>
       <c r="F584" t="n">
         <v>0.0001</v>
@@ -12286,7 +12286,7 @@
         <v>14</v>
       </c>
       <c r="E585" t="n">
-        <v>0.1722</v>
+        <v>0.1723</v>
       </c>
       <c r="F585" t="n">
         <v>0.0018</v>
@@ -12346,7 +12346,7 @@
         <v>15</v>
       </c>
       <c r="E588" t="n">
-        <v>0.5224</v>
+        <v>0.5227</v>
       </c>
       <c r="F588" t="n">
         <v>0</v>
@@ -12366,7 +12366,7 @@
         <v>15</v>
       </c>
       <c r="E589" t="n">
-        <v>0.7792</v>
+        <v>0.7794</v>
       </c>
       <c r="F589" t="n">
         <v>0</v>
@@ -12546,10 +12546,10 @@
         <v>14</v>
       </c>
       <c r="E598" t="n">
-        <v>0.2251</v>
+        <v>0.2247</v>
       </c>
       <c r="F598" t="n">
-        <v>0.0012</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="599">
@@ -12746,7 +12746,7 @@
         <v>14</v>
       </c>
       <c r="E608" t="n">
-        <v>0.0708</v>
+        <v>0.0706</v>
       </c>
       <c r="F608" t="n">
         <v>0</v>
@@ -12766,10 +12766,10 @@
         <v>14</v>
       </c>
       <c r="E609" t="n">
-        <v>0.0073</v>
+        <v>0.0074</v>
       </c>
       <c r="F609" t="n">
-        <v>0.9627</v>
+        <v>0.9601</v>
       </c>
     </row>
     <row r="610">
@@ -12906,10 +12906,10 @@
         <v>14</v>
       </c>
       <c r="E616" t="n">
-        <v>0.0931</v>
+        <v>0.0934</v>
       </c>
       <c r="F616" t="n">
-        <v>0.5516</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="617">
@@ -12929,7 +12929,7 @@
         <v>0.0556</v>
       </c>
       <c r="F617" t="n">
-        <v>0.9779</v>
+        <v>0.9778</v>
       </c>
     </row>
     <row r="618">
@@ -13026,7 +13026,7 @@
         <v>14</v>
       </c>
       <c r="E622" t="n">
-        <v>0.2337</v>
+        <v>0.2336</v>
       </c>
       <c r="F622" t="n">
         <v>0.0007</v>
@@ -13046,10 +13046,10 @@
         <v>14</v>
       </c>
       <c r="E623" t="n">
-        <v>0.1521</v>
+        <v>0.152</v>
       </c>
       <c r="F623" t="n">
-        <v>0.0684</v>
+        <v>0.0686</v>
       </c>
     </row>
     <row r="624">
@@ -13106,7 +13106,7 @@
         <v>14</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2153</v>
+        <v>0.2149</v>
       </c>
       <c r="F626" t="n">
         <v>0</v>
@@ -13186,7 +13186,7 @@
         <v>15</v>
       </c>
       <c r="E630" t="n">
-        <v>0.6599</v>
+        <v>0.6598</v>
       </c>
       <c r="F630" t="n">
         <v>0</v>
@@ -13386,7 +13386,7 @@
         <v>14</v>
       </c>
       <c r="E640" t="n">
-        <v>0.2699</v>
+        <v>0.2698</v>
       </c>
       <c r="F640" t="n">
         <v>0.0001</v>
@@ -13406,7 +13406,7 @@
         <v>14</v>
       </c>
       <c r="E641" t="n">
-        <v>0.3112</v>
+        <v>0.3111</v>
       </c>
       <c r="F641" t="n">
         <v>0</v>
@@ -13586,10 +13586,10 @@
         <v>14</v>
       </c>
       <c r="E650" t="n">
-        <v>0.021</v>
+        <v>0.0212</v>
       </c>
       <c r="F650" t="n">
-        <v>0.0039</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="651">
@@ -13606,7 +13606,7 @@
         <v>14</v>
       </c>
       <c r="E651" t="n">
-        <v>0.0035</v>
+        <v>0.0036</v>
       </c>
       <c r="F651" t="n">
         <v>1</v>
@@ -13746,10 +13746,10 @@
         <v>14</v>
       </c>
       <c r="E658" t="n">
-        <v>0.0683</v>
+        <v>0.0682</v>
       </c>
       <c r="F658" t="n">
-        <v>0.8946</v>
+        <v>0.8955</v>
       </c>
     </row>
     <row r="659">
@@ -13766,10 +13766,10 @@
         <v>14</v>
       </c>
       <c r="E659" t="n">
-        <v>0.0584</v>
+        <v>0.0586</v>
       </c>
       <c r="F659" t="n">
-        <v>0.9687</v>
+        <v>0.9676</v>
       </c>
     </row>
     <row r="660">
@@ -13869,7 +13869,7 @@
         <v>0.2113</v>
       </c>
       <c r="F664" t="n">
-        <v>0.0038</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="665">
@@ -13946,7 +13946,7 @@
         <v>14</v>
       </c>
       <c r="E668" t="n">
-        <v>0.1594</v>
+        <v>0.1591</v>
       </c>
       <c r="F668" t="n">
         <v>0.0011</v>
@@ -14026,7 +14026,7 @@
         <v>15</v>
       </c>
       <c r="E672" t="n">
-        <v>0.5751</v>
+        <v>0.5749</v>
       </c>
       <c r="F672" t="n">
         <v>0</v>
@@ -14046,7 +14046,7 @@
         <v>15</v>
       </c>
       <c r="E673" t="n">
-        <v>0.5721</v>
+        <v>0.572</v>
       </c>
       <c r="F673" t="n">
         <v>0</v>
@@ -14226,7 +14226,7 @@
         <v>14</v>
       </c>
       <c r="E682" t="n">
-        <v>0.2542</v>
+        <v>0.2539</v>
       </c>
       <c r="F682" t="n">
         <v>0.0002</v>
@@ -14246,7 +14246,7 @@
         <v>14</v>
       </c>
       <c r="E683" t="n">
-        <v>0.3765</v>
+        <v>0.3767</v>
       </c>
       <c r="F683" t="n">
         <v>0</v>
@@ -14426,7 +14426,7 @@
         <v>14</v>
       </c>
       <c r="E692" t="n">
-        <v>0.0435</v>
+        <v>0.0438</v>
       </c>
       <c r="F692" t="n">
         <v>0</v>
@@ -14446,10 +14446,10 @@
         <v>14</v>
       </c>
       <c r="E693" t="n">
-        <v>0.0135</v>
+        <v>0.0136</v>
       </c>
       <c r="F693" t="n">
-        <v>0.4779</v>
+        <v>0.4661</v>
       </c>
     </row>
     <row r="694">
@@ -14586,10 +14586,10 @@
         <v>14</v>
       </c>
       <c r="E700" t="n">
-        <v>0.0751</v>
+        <v>0.0752</v>
       </c>
       <c r="F700" t="n">
-        <v>0.812</v>
+        <v>0.8105</v>
       </c>
     </row>
     <row r="701">
@@ -14606,10 +14606,10 @@
         <v>14</v>
       </c>
       <c r="E701" t="n">
-        <v>0.0656</v>
+        <v>0.0657</v>
       </c>
       <c r="F701" t="n">
-        <v>0.9157</v>
+        <v>0.9149</v>
       </c>
     </row>
     <row r="702">
@@ -14706,7 +14706,7 @@
         <v>14</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2057</v>
+        <v>0.2056</v>
       </c>
       <c r="F706" t="n">
         <v>0.0045</v>
@@ -14786,7 +14786,7 @@
         <v>14</v>
       </c>
       <c r="E710" t="n">
-        <v>0.1891</v>
+        <v>0.1894</v>
       </c>
       <c r="F710" t="n">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>14</v>
       </c>
       <c r="E711" t="n">
-        <v>0.2363</v>
+        <v>0.2365</v>
       </c>
       <c r="F711" t="n">
         <v>0</v>
@@ -14866,7 +14866,7 @@
         <v>15</v>
       </c>
       <c r="E714" t="n">
-        <v>0.5502</v>
+        <v>0.5498</v>
       </c>
       <c r="F714" t="n">
         <v>0</v>
@@ -15086,7 +15086,7 @@
         <v>14</v>
       </c>
       <c r="E725" t="n">
-        <v>0.4184</v>
+        <v>0.4187</v>
       </c>
       <c r="F725" t="n">
         <v>0</v>
@@ -15266,7 +15266,7 @@
         <v>14</v>
       </c>
       <c r="E734" t="n">
-        <v>0.0699</v>
+        <v>0.0697</v>
       </c>
       <c r="F734" t="n">
         <v>0</v>
@@ -15286,10 +15286,10 @@
         <v>14</v>
       </c>
       <c r="E735" t="n">
-        <v>0.0283</v>
+        <v>0.0287</v>
       </c>
       <c r="F735" t="n">
-        <v>0.0019</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="736">
@@ -15429,7 +15429,7 @@
         <v>0.0913</v>
       </c>
       <c r="F742" t="n">
-        <v>0.6314</v>
+        <v>0.6312</v>
       </c>
     </row>
     <row r="743">
@@ -15446,10 +15446,10 @@
         <v>14</v>
       </c>
       <c r="E743" t="n">
-        <v>0.0497</v>
+        <v>0.0501</v>
       </c>
       <c r="F743" t="n">
-        <v>0.9964</v>
+        <v>0.9961</v>
       </c>
     </row>
     <row r="744">
@@ -15546,7 +15546,7 @@
         <v>14</v>
       </c>
       <c r="E748" t="n">
-        <v>0.2424</v>
+        <v>0.2425</v>
       </c>
       <c r="F748" t="n">
         <v>0.0008</v>
@@ -15566,10 +15566,10 @@
         <v>14</v>
       </c>
       <c r="E749" t="n">
-        <v>0.2243</v>
+        <v>0.2247</v>
       </c>
       <c r="F749" t="n">
-        <v>0.0024</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="750">
@@ -15626,7 +15626,7 @@
         <v>14</v>
       </c>
       <c r="E752" t="n">
-        <v>0.2239</v>
+        <v>0.2238</v>
       </c>
       <c r="F752" t="n">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>14</v>
       </c>
       <c r="E753" t="n">
-        <v>0.1963</v>
+        <v>0.1966</v>
       </c>
       <c r="F753" t="n">
         <v>0.0002</v>
@@ -15706,7 +15706,7 @@
         <v>15</v>
       </c>
       <c r="E756" t="n">
-        <v>0.6109</v>
+        <v>0.6108</v>
       </c>
       <c r="F756" t="n">
         <v>0</v>
@@ -15726,7 +15726,7 @@
         <v>15</v>
       </c>
       <c r="E757" t="n">
-        <v>0.9626</v>
+        <v>0.9627</v>
       </c>
       <c r="F757" t="n">
         <v>0</v>
@@ -15906,7 +15906,7 @@
         <v>14</v>
       </c>
       <c r="E766" t="n">
-        <v>0.3342</v>
+        <v>0.3347</v>
       </c>
       <c r="F766" t="n">
         <v>0</v>
@@ -15926,7 +15926,7 @@
         <v>14</v>
       </c>
       <c r="E767" t="n">
-        <v>0.247</v>
+        <v>0.2471</v>
       </c>
       <c r="F767" t="n">
         <v>0.0003</v>
@@ -16106,7 +16106,7 @@
         <v>14</v>
       </c>
       <c r="E776" t="n">
-        <v>0.0531</v>
+        <v>0.0535</v>
       </c>
       <c r="F776" t="n">
         <v>0</v>
@@ -16126,10 +16126,10 @@
         <v>14</v>
       </c>
       <c r="E777" t="n">
-        <v>0.0129</v>
+        <v>0.013</v>
       </c>
       <c r="F777" t="n">
-        <v>0.4475</v>
+        <v>0.4424</v>
       </c>
     </row>
     <row r="778">
@@ -16269,7 +16269,7 @@
         <v>0.0607</v>
       </c>
       <c r="F784" t="n">
-        <v>0.9561</v>
+        <v>0.9562</v>
       </c>
     </row>
     <row r="785">
@@ -16286,10 +16286,10 @@
         <v>14</v>
       </c>
       <c r="E785" t="n">
-        <v>0.0702</v>
+        <v>0.0701</v>
       </c>
       <c r="F785" t="n">
-        <v>0.8755</v>
+        <v>0.8768</v>
       </c>
     </row>
     <row r="786">
@@ -16386,10 +16386,10 @@
         <v>14</v>
       </c>
       <c r="E790" t="n">
-        <v>0.1823</v>
+        <v>0.1818</v>
       </c>
       <c r="F790" t="n">
-        <v>0.0178</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="791">
@@ -16406,7 +16406,7 @@
         <v>14</v>
       </c>
       <c r="E791" t="n">
-        <v>0.2255</v>
+        <v>0.2254</v>
       </c>
       <c r="F791" t="n">
         <v>0.0015</v>
@@ -16466,7 +16466,7 @@
         <v>14</v>
       </c>
       <c r="E794" t="n">
-        <v>0.204</v>
+        <v>0.2044</v>
       </c>
       <c r="F794" t="n">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>14</v>
       </c>
       <c r="E795" t="n">
-        <v>0.1939</v>
+        <v>0.1938</v>
       </c>
       <c r="F795" t="n">
         <v>0.0002</v>
@@ -16546,7 +16546,7 @@
         <v>15</v>
       </c>
       <c r="E798" t="n">
-        <v>0.579</v>
+        <v>0.5797</v>
       </c>
       <c r="F798" t="n">
         <v>0</v>
@@ -16566,7 +16566,7 @@
         <v>15</v>
       </c>
       <c r="E799" t="n">
-        <v>0.6987</v>
+        <v>0.6985</v>
       </c>
       <c r="F799" t="n">
         <v>0</v>
@@ -16746,7 +16746,7 @@
         <v>14</v>
       </c>
       <c r="E808" t="n">
-        <v>0.2853</v>
+        <v>0.2855</v>
       </c>
       <c r="F808" t="n">
         <v>0</v>
@@ -16766,7 +16766,7 @@
         <v>14</v>
       </c>
       <c r="E809" t="n">
-        <v>0.2499</v>
+        <v>0.2502</v>
       </c>
       <c r="F809" t="n">
         <v>0.0005</v>
@@ -16946,7 +16946,7 @@
         <v>14</v>
       </c>
       <c r="E818" t="n">
-        <v>0.0278</v>
+        <v>0.0277</v>
       </c>
       <c r="F818" t="n">
         <v>0</v>
@@ -16966,10 +16966,10 @@
         <v>14</v>
       </c>
       <c r="E819" t="n">
-        <v>0.0155</v>
+        <v>0.0159</v>
       </c>
       <c r="F819" t="n">
-        <v>0.2748</v>
+        <v>0.2511</v>
       </c>
     </row>
     <row r="820">
@@ -17106,10 +17106,10 @@
         <v>14</v>
       </c>
       <c r="E826" t="n">
-        <v>0.0845</v>
+        <v>0.0844</v>
       </c>
       <c r="F826" t="n">
-        <v>0.7334</v>
+        <v>0.7354</v>
       </c>
     </row>
     <row r="827">
@@ -17126,10 +17126,10 @@
         <v>14</v>
       </c>
       <c r="E827" t="n">
-        <v>0.0693</v>
+        <v>0.069</v>
       </c>
       <c r="F827" t="n">
-        <v>0.9093</v>
+        <v>0.9122</v>
       </c>
     </row>
     <row r="828">
@@ -17226,10 +17226,10 @@
         <v>14</v>
       </c>
       <c r="E832" t="n">
-        <v>0.1845</v>
+        <v>0.1847</v>
       </c>
       <c r="F832" t="n">
-        <v>0.0224</v>
+        <v>0.0222</v>
       </c>
     </row>
     <row r="833">
@@ -17306,10 +17306,10 @@
         <v>14</v>
       </c>
       <c r="E836" t="n">
-        <v>0.1531</v>
+        <v>0.153</v>
       </c>
       <c r="F836" t="n">
-        <v>0.002</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="837">
@@ -17386,7 +17386,7 @@
         <v>15</v>
       </c>
       <c r="E840" t="n">
-        <v>0.6028</v>
+        <v>0.6029</v>
       </c>
       <c r="F840" t="n">
         <v>0</v>
@@ -17406,7 +17406,7 @@
         <v>15</v>
       </c>
       <c r="E841" t="n">
-        <v>0.8349</v>
+        <v>0.835</v>
       </c>
       <c r="F841" t="n">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>14</v>
       </c>
       <c r="E850" t="n">
-        <v>0.2256</v>
+        <v>0.2254</v>
       </c>
       <c r="F850" t="n">
         <v>0.0022</v>
@@ -17606,7 +17606,7 @@
         <v>14</v>
       </c>
       <c r="E851" t="n">
-        <v>0.3641</v>
+        <v>0.3639</v>
       </c>
       <c r="F851" t="n">
         <v>0</v>
@@ -17786,7 +17786,7 @@
         <v>14</v>
       </c>
       <c r="E860" t="n">
-        <v>0.0453</v>
+        <v>0.0455</v>
       </c>
       <c r="F860" t="n">
         <v>0</v>
@@ -17806,7 +17806,7 @@
         <v>14</v>
       </c>
       <c r="E861" t="n">
-        <v>0.038</v>
+        <v>0.0378</v>
       </c>
       <c r="F861" t="n">
         <v>0</v>
@@ -17946,10 +17946,10 @@
         <v>14</v>
       </c>
       <c r="E868" t="n">
-        <v>0.0711</v>
+        <v>0.0708</v>
       </c>
       <c r="F868" t="n">
-        <v>0.8871</v>
+        <v>0.8903</v>
       </c>
     </row>
     <row r="869">
@@ -17969,7 +17969,7 @@
         <v>0.0787</v>
       </c>
       <c r="F869" t="n">
-        <v>0.8005</v>
+        <v>0.8007</v>
       </c>
     </row>
     <row r="870">
@@ -18146,7 +18146,7 @@
         <v>14</v>
       </c>
       <c r="E878" t="n">
-        <v>0.1887</v>
+        <v>0.1888</v>
       </c>
       <c r="F878" t="n">
         <v>0.0001</v>
@@ -18166,7 +18166,7 @@
         <v>14</v>
       </c>
       <c r="E879" t="n">
-        <v>0.267</v>
+        <v>0.2668</v>
       </c>
       <c r="F879" t="n">
         <v>0</v>
@@ -18226,7 +18226,7 @@
         <v>15</v>
       </c>
       <c r="E882" t="n">
-        <v>0.563</v>
+        <v>0.5629</v>
       </c>
       <c r="F882" t="n">
         <v>0</v>
@@ -18426,7 +18426,7 @@
         <v>14</v>
       </c>
       <c r="E892" t="n">
-        <v>0.2889</v>
+        <v>0.2894</v>
       </c>
       <c r="F892" t="n">
         <v>0</v>
@@ -18446,10 +18446,10 @@
         <v>14</v>
       </c>
       <c r="E893" t="n">
-        <v>0.2064</v>
+        <v>0.2065</v>
       </c>
       <c r="F893" t="n">
-        <v>0.0061</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="894">
@@ -18626,7 +18626,7 @@
         <v>14</v>
       </c>
       <c r="E902" t="n">
-        <v>0.0859</v>
+        <v>0.0855</v>
       </c>
       <c r="F902" t="n">
         <v>0</v>
@@ -18646,10 +18646,10 @@
         <v>14</v>
       </c>
       <c r="E903" t="n">
-        <v>0.0221</v>
+        <v>0.0225</v>
       </c>
       <c r="F903" t="n">
-        <v>0.0304</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="904">
@@ -18786,10 +18786,10 @@
         <v>14</v>
       </c>
       <c r="E910" t="n">
-        <v>0.1191</v>
+        <v>0.1196</v>
       </c>
       <c r="F910" t="n">
-        <v>0.2897</v>
+        <v>0.2849</v>
       </c>
     </row>
     <row r="911">
@@ -18806,10 +18806,10 @@
         <v>14</v>
       </c>
       <c r="E911" t="n">
-        <v>0.0787</v>
+        <v>0.0785</v>
       </c>
       <c r="F911" t="n">
-        <v>0.793</v>
+        <v>0.7961</v>
       </c>
     </row>
     <row r="912">
@@ -18906,7 +18906,7 @@
         <v>14</v>
       </c>
       <c r="E916" t="n">
-        <v>0.3624</v>
+        <v>0.363</v>
       </c>
       <c r="F916" t="n">
         <v>0</v>
@@ -18986,7 +18986,7 @@
         <v>14</v>
       </c>
       <c r="E920" t="n">
-        <v>0.2571</v>
+        <v>0.2567</v>
       </c>
       <c r="F920" t="n">
         <v>0</v>
@@ -19006,10 +19006,10 @@
         <v>14</v>
       </c>
       <c r="E921" t="n">
-        <v>0.1869</v>
+        <v>0.1867</v>
       </c>
       <c r="F921" t="n">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="922">
@@ -19066,7 +19066,7 @@
         <v>15</v>
       </c>
       <c r="E924" t="n">
-        <v>0.5468</v>
+        <v>0.5473</v>
       </c>
       <c r="F924" t="n">
         <v>0</v>
@@ -19086,7 +19086,7 @@
         <v>15</v>
       </c>
       <c r="E925" t="n">
-        <v>0.9729</v>
+        <v>0.9728</v>
       </c>
       <c r="F925" t="n">
         <v>0</v>
@@ -19266,7 +19266,7 @@
         <v>14</v>
       </c>
       <c r="E934" t="n">
-        <v>0.3116</v>
+        <v>0.3115</v>
       </c>
       <c r="F934" t="n">
         <v>0</v>
@@ -19286,7 +19286,7 @@
         <v>14</v>
       </c>
       <c r="E935" t="n">
-        <v>0.3255</v>
+        <v>0.3254</v>
       </c>
       <c r="F935" t="n">
         <v>0</v>
@@ -19466,7 +19466,7 @@
         <v>14</v>
       </c>
       <c r="E944" t="n">
-        <v>0.0286</v>
+        <v>0.0287</v>
       </c>
       <c r="F944" t="n">
         <v>0.0001</v>
@@ -19486,10 +19486,10 @@
         <v>14</v>
       </c>
       <c r="E945" t="n">
-        <v>0.0254</v>
+        <v>0.0252</v>
       </c>
       <c r="F945" t="n">
-        <v>0.0138</v>
+        <v>0.0148</v>
       </c>
     </row>
     <row r="946">
@@ -19626,10 +19626,10 @@
         <v>14</v>
       </c>
       <c r="E952" t="n">
-        <v>0.0864</v>
+        <v>0.0862</v>
       </c>
       <c r="F952" t="n">
-        <v>0.7619</v>
+        <v>0.7639</v>
       </c>
     </row>
     <row r="953">
@@ -19646,10 +19646,10 @@
         <v>14</v>
       </c>
       <c r="E953" t="n">
-        <v>0.0596</v>
+        <v>0.0595</v>
       </c>
       <c r="F953" t="n">
-        <v>0.9834</v>
+        <v>0.9835</v>
       </c>
     </row>
     <row r="954">
@@ -19766,10 +19766,10 @@
         <v>14</v>
       </c>
       <c r="E959" t="n">
-        <v>0.179</v>
+        <v>0.1788</v>
       </c>
       <c r="F959" t="n">
-        <v>0.0429</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="960">
@@ -19826,10 +19826,10 @@
         <v>14</v>
       </c>
       <c r="E962" t="n">
-        <v>0.1532</v>
+        <v>0.1534</v>
       </c>
       <c r="F962" t="n">
-        <v>0.0062</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="963">
@@ -19906,7 +19906,7 @@
         <v>15</v>
       </c>
       <c r="E966" t="n">
-        <v>0.6704</v>
+        <v>0.6707</v>
       </c>
       <c r="F966" t="n">
         <v>0</v>
@@ -19926,7 +19926,7 @@
         <v>15</v>
       </c>
       <c r="E967" t="n">
-        <v>0.8885</v>
+        <v>0.8884</v>
       </c>
       <c r="F967" t="n">
         <v>0</v>
@@ -20106,7 +20106,7 @@
         <v>14</v>
       </c>
       <c r="E976" t="n">
-        <v>0.2926</v>
+        <v>0.2925</v>
       </c>
       <c r="F976" t="n">
         <v>0</v>
@@ -20306,7 +20306,7 @@
         <v>14</v>
       </c>
       <c r="E986" t="n">
-        <v>0.0521</v>
+        <v>0.0522</v>
       </c>
       <c r="F986" t="n">
         <v>0</v>
@@ -20326,10 +20326,10 @@
         <v>14</v>
       </c>
       <c r="E987" t="n">
-        <v>0.0055</v>
+        <v>0.0057</v>
       </c>
       <c r="F987" t="n">
-        <v>0.9992</v>
+        <v>0.9987</v>
       </c>
     </row>
     <row r="988">
@@ -20469,7 +20469,7 @@
         <v>0.0897</v>
       </c>
       <c r="F994" t="n">
-        <v>0.6354</v>
+        <v>0.6358</v>
       </c>
     </row>
     <row r="995">
@@ -20486,10 +20486,10 @@
         <v>14</v>
       </c>
       <c r="E995" t="n">
-        <v>0.0804</v>
+        <v>0.0805</v>
       </c>
       <c r="F995" t="n">
-        <v>0.7642</v>
+        <v>0.7624</v>
       </c>
     </row>
     <row r="996">
@@ -20586,10 +20586,10 @@
         <v>14</v>
       </c>
       <c r="E1000" t="n">
-        <v>0.1867</v>
+        <v>0.1865</v>
       </c>
       <c r="F1000" t="n">
-        <v>0.0175</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="1001">
@@ -20666,7 +20666,7 @@
         <v>14</v>
       </c>
       <c r="E1004" t="n">
-        <v>0.2031</v>
+        <v>0.2032</v>
       </c>
       <c r="F1004" t="n">
         <v>0</v>
@@ -20946,7 +20946,7 @@
         <v>14</v>
       </c>
       <c r="E1018" t="n">
-        <v>0.2891</v>
+        <v>0.2885</v>
       </c>
       <c r="F1018" t="n">
         <v>0.0001</v>
@@ -20966,7 +20966,7 @@
         <v>14</v>
       </c>
       <c r="E1019" t="n">
-        <v>0.2975</v>
+        <v>0.2976</v>
       </c>
       <c r="F1019" t="n">
         <v>0</v>
@@ -21146,10 +21146,10 @@
         <v>14</v>
       </c>
       <c r="E1028" t="n">
-        <v>0.0275</v>
+        <v>0.027</v>
       </c>
       <c r="F1028" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="1029">
@@ -21166,10 +21166,10 @@
         <v>14</v>
       </c>
       <c r="E1029" t="n">
-        <v>0.0075</v>
+        <v>0.0077</v>
       </c>
       <c r="F1029" t="n">
-        <v>0.9763</v>
+        <v>0.9681</v>
       </c>
     </row>
     <row r="1030">
@@ -21306,10 +21306,10 @@
         <v>14</v>
       </c>
       <c r="E1036" t="n">
-        <v>0.0866</v>
+        <v>0.0872</v>
       </c>
       <c r="F1036" t="n">
-        <v>0.7496</v>
+        <v>0.7431</v>
       </c>
     </row>
     <row r="1037">
@@ -21329,7 +21329,7 @@
         <v>0.0673</v>
       </c>
       <c r="F1037" t="n">
-        <v>0.9451</v>
+        <v>0.9454</v>
       </c>
     </row>
     <row r="1038">
@@ -21426,10 +21426,10 @@
         <v>14</v>
       </c>
       <c r="E1042" t="n">
-        <v>0.1824</v>
+        <v>0.183</v>
       </c>
       <c r="F1042" t="n">
-        <v>0.0345</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="1043">
@@ -21446,10 +21446,10 @@
         <v>14</v>
       </c>
       <c r="E1043" t="n">
-        <v>0.222</v>
+        <v>0.2218</v>
       </c>
       <c r="F1043" t="n">
-        <v>0.0049</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="1044">
@@ -21506,7 +21506,7 @@
         <v>14</v>
       </c>
       <c r="E1046" t="n">
-        <v>0.1791</v>
+        <v>0.1786</v>
       </c>
       <c r="F1046" t="n">
         <v>0.0003</v>
@@ -21526,7 +21526,7 @@
         <v>14</v>
       </c>
       <c r="E1047" t="n">
-        <v>0.1801</v>
+        <v>0.1803</v>
       </c>
       <c r="F1047" t="n">
         <v>0.0018</v>
@@ -21586,7 +21586,7 @@
         <v>15</v>
       </c>
       <c r="E1050" t="n">
-        <v>0.5638</v>
+        <v>0.5641</v>
       </c>
       <c r="F1050" t="n">
         <v>0</v>
@@ -21606,7 +21606,7 @@
         <v>15</v>
       </c>
       <c r="E1051" t="n">
-        <v>0.7755</v>
+        <v>0.7757</v>
       </c>
       <c r="F1051" t="n">
         <v>0</v>
@@ -21786,7 +21786,7 @@
         <v>14</v>
       </c>
       <c r="E1060" t="n">
-        <v>0.2602</v>
+        <v>0.2604</v>
       </c>
       <c r="F1060" t="n">
         <v>0.0003</v>
@@ -21806,7 +21806,7 @@
         <v>14</v>
       </c>
       <c r="E1061" t="n">
-        <v>0.2375</v>
+        <v>0.2371</v>
       </c>
       <c r="F1061" t="n">
         <v>0.0013</v>
@@ -22009,7 +22009,7 @@
         <v>0.023</v>
       </c>
       <c r="F1071" t="n">
-        <v>0.0307</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="1072">
@@ -22146,10 +22146,10 @@
         <v>14</v>
       </c>
       <c r="E1078" t="n">
-        <v>0.1261</v>
+        <v>0.126</v>
       </c>
       <c r="F1078" t="n">
-        <v>0.2525</v>
+        <v>0.2532</v>
       </c>
     </row>
     <row r="1079">
@@ -22166,10 +22166,10 @@
         <v>14</v>
       </c>
       <c r="E1079" t="n">
-        <v>0.0814</v>
+        <v>0.0818</v>
       </c>
       <c r="F1079" t="n">
-        <v>0.782</v>
+        <v>0.7773</v>
       </c>
     </row>
     <row r="1080">
@@ -22286,7 +22286,7 @@
         <v>14</v>
       </c>
       <c r="E1085" t="n">
-        <v>0.2881</v>
+        <v>0.2882</v>
       </c>
       <c r="F1085" t="n">
         <v>0</v>
@@ -22346,7 +22346,7 @@
         <v>14</v>
       </c>
       <c r="E1088" t="n">
-        <v>0.1932</v>
+        <v>0.1933</v>
       </c>
       <c r="F1088" t="n">
         <v>0</v>
@@ -22366,7 +22366,7 @@
         <v>14</v>
       </c>
       <c r="E1089" t="n">
-        <v>0.1916</v>
+        <v>0.1917</v>
       </c>
       <c r="F1089" t="n">
         <v>0.0006</v>
@@ -22426,7 +22426,7 @@
         <v>15</v>
       </c>
       <c r="E1092" t="n">
-        <v>0.5526</v>
+        <v>0.5528</v>
       </c>
       <c r="F1092" t="n">
         <v>0</v>
@@ -22446,7 +22446,7 @@
         <v>15</v>
       </c>
       <c r="E1093" t="n">
-        <v>0.8678</v>
+        <v>0.8675</v>
       </c>
       <c r="F1093" t="n">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>14</v>
       </c>
       <c r="E1112" t="n">
-        <v>0.0837</v>
+        <v>0.0836</v>
       </c>
       <c r="F1112" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>14</v>
       </c>
       <c r="E1113" t="n">
-        <v>0.0064</v>
+        <v>0.0061</v>
       </c>
       <c r="F1113" t="n">
-        <v>0.9978</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="1114">
@@ -22989,7 +22989,7 @@
         <v>0.0675</v>
       </c>
       <c r="F1120" t="n">
-        <v>0.9365</v>
+        <v>0.9363</v>
       </c>
     </row>
     <row r="1121">
@@ -23006,10 +23006,10 @@
         <v>14</v>
       </c>
       <c r="E1121" t="n">
-        <v>0.1046</v>
+        <v>0.1047</v>
       </c>
       <c r="F1121" t="n">
-        <v>0.4954</v>
+        <v>0.4946</v>
       </c>
     </row>
     <row r="1122">
@@ -23106,7 +23106,7 @@
         <v>14</v>
       </c>
       <c r="E1126" t="n">
-        <v>0.237</v>
+        <v>0.2374</v>
       </c>
       <c r="F1126" t="n">
         <v>0.0017</v>
@@ -23129,7 +23129,7 @@
         <v>0.1629</v>
       </c>
       <c r="F1127" t="n">
-        <v>0.0707</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="1128">
@@ -23186,7 +23186,7 @@
         <v>14</v>
       </c>
       <c r="E1130" t="n">
-        <v>0.2557</v>
+        <v>0.2556</v>
       </c>
       <c r="F1130" t="n">
         <v>0</v>
@@ -23206,7 +23206,7 @@
         <v>14</v>
       </c>
       <c r="E1131" t="n">
-        <v>0.1818</v>
+        <v>0.1819</v>
       </c>
       <c r="F1131" t="n">
         <v>0.0022</v>
@@ -23266,7 +23266,7 @@
         <v>15</v>
       </c>
       <c r="E1134" t="n">
-        <v>0.5291</v>
+        <v>0.5294</v>
       </c>
       <c r="F1134" t="n">
         <v>0</v>
@@ -23286,7 +23286,7 @@
         <v>15</v>
       </c>
       <c r="E1135" t="n">
-        <v>0.9378</v>
+        <v>0.9377</v>
       </c>
       <c r="F1135" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>14</v>
       </c>
       <c r="E1144" t="n">
-        <v>0.3749</v>
+        <v>0.3746</v>
       </c>
       <c r="F1144" t="n">
         <v>0</v>
@@ -23486,7 +23486,7 @@
         <v>14</v>
       </c>
       <c r="E1145" t="n">
-        <v>0.394</v>
+        <v>0.3943</v>
       </c>
       <c r="F1145" t="n">
         <v>0</v>
@@ -23666,7 +23666,7 @@
         <v>14</v>
       </c>
       <c r="E1154" t="n">
-        <v>0.0804</v>
+        <v>0.0803</v>
       </c>
       <c r="F1154" t="n">
         <v>0</v>
@@ -23686,10 +23686,10 @@
         <v>14</v>
       </c>
       <c r="E1155" t="n">
-        <v>0.0107</v>
+        <v>0.0108</v>
       </c>
       <c r="F1155" t="n">
-        <v>0.7317</v>
+        <v>0.7194</v>
       </c>
     </row>
     <row r="1156">
@@ -23829,7 +23829,7 @@
         <v>0.0908</v>
       </c>
       <c r="F1162" t="n">
-        <v>0.6863</v>
+        <v>0.6866</v>
       </c>
     </row>
     <row r="1163">
@@ -23846,10 +23846,10 @@
         <v>14</v>
       </c>
       <c r="E1163" t="n">
-        <v>0.0508</v>
+        <v>0.0506</v>
       </c>
       <c r="F1163" t="n">
-        <v>0.9972</v>
+        <v>0.9974</v>
       </c>
     </row>
     <row r="1164">
@@ -23946,10 +23946,10 @@
         <v>14</v>
       </c>
       <c r="E1168" t="n">
-        <v>0.2346</v>
+        <v>0.2349</v>
       </c>
       <c r="F1168" t="n">
-        <v>0.0022</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="1169">
@@ -23966,10 +23966,10 @@
         <v>14</v>
       </c>
       <c r="E1169" t="n">
-        <v>0.152</v>
+        <v>0.1524</v>
       </c>
       <c r="F1169" t="n">
-        <v>0.1139</v>
+        <v>0.1124</v>
       </c>
     </row>
     <row r="1170">
@@ -24026,7 +24026,7 @@
         <v>14</v>
       </c>
       <c r="E1172" t="n">
-        <v>0.2487</v>
+        <v>0.2485</v>
       </c>
       <c r="F1172" t="n">
         <v>0</v>
@@ -24046,10 +24046,10 @@
         <v>14</v>
       </c>
       <c r="E1173" t="n">
-        <v>0.1547</v>
+        <v>0.155</v>
       </c>
       <c r="F1173" t="n">
-        <v>0.0114</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="1174">
@@ -24106,7 +24106,7 @@
         <v>15</v>
       </c>
       <c r="E1176" t="n">
-        <v>0.4882</v>
+        <v>0.488</v>
       </c>
       <c r="F1176" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         <v>15</v>
       </c>
       <c r="E1177" t="n">
-        <v>0.8405</v>
+        <v>0.8407</v>
       </c>
       <c r="F1177" t="n">
         <v>0</v>
@@ -24309,7 +24309,7 @@
         <v>0.2378</v>
       </c>
       <c r="F1186" t="n">
-        <v>0.0007</v>
+        <v>0.0006</v>
       </c>
     </row>
     <row r="1187">
@@ -24326,7 +24326,7 @@
         <v>14</v>
       </c>
       <c r="E1187" t="n">
-        <v>0.2575</v>
+        <v>0.2576</v>
       </c>
       <c r="F1187" t="n">
         <v>0.0002</v>
@@ -24526,10 +24526,10 @@
         <v>14</v>
       </c>
       <c r="E1197" t="n">
-        <v>0.0058</v>
+        <v>0.0057</v>
       </c>
       <c r="F1197" t="n">
-        <v>0.9969</v>
+        <v>0.9978</v>
       </c>
     </row>
     <row r="1198">
@@ -24666,10 +24666,10 @@
         <v>14</v>
       </c>
       <c r="E1204" t="n">
-        <v>0.0883</v>
+        <v>0.0885</v>
       </c>
       <c r="F1204" t="n">
-        <v>0.6368</v>
+        <v>0.6341</v>
       </c>
     </row>
     <row r="1205">
@@ -24686,10 +24686,10 @@
         <v>14</v>
       </c>
       <c r="E1205" t="n">
-        <v>0.0607</v>
+        <v>0.0608</v>
       </c>
       <c r="F1205" t="n">
-        <v>0.9562</v>
+        <v>0.9555</v>
       </c>
     </row>
     <row r="1206">
@@ -24806,10 +24806,10 @@
         <v>14</v>
       </c>
       <c r="E1211" t="n">
-        <v>0.1466</v>
+        <v>0.1465</v>
       </c>
       <c r="F1211" t="n">
-        <v>0.0943</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="1212">
@@ -24886,10 +24886,10 @@
         <v>14</v>
       </c>
       <c r="E1215" t="n">
-        <v>0.1438</v>
+        <v>0.1437</v>
       </c>
       <c r="F1215" t="n">
-        <v>0.0118</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="1216">
@@ -25146,7 +25146,7 @@
         <v>14</v>
       </c>
       <c r="E1228" t="n">
-        <v>0.3129</v>
+        <v>0.3128</v>
       </c>
       <c r="F1228" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>14</v>
       </c>
       <c r="E1229" t="n">
-        <v>0.2709</v>
+        <v>0.2711</v>
       </c>
       <c r="F1229" t="n">
         <v>0.0001</v>
@@ -25346,7 +25346,7 @@
         <v>14</v>
       </c>
       <c r="E1238" t="n">
-        <v>0.0319</v>
+        <v>0.0317</v>
       </c>
       <c r="F1238" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>14</v>
       </c>
       <c r="E1239" t="n">
-        <v>0.0208</v>
+        <v>0.0204</v>
       </c>
       <c r="F1239" t="n">
-        <v>0.0383</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="1240">
@@ -25509,7 +25509,7 @@
         <v>0.0837</v>
       </c>
       <c r="F1246" t="n">
-        <v>0.7112</v>
+        <v>0.7108</v>
       </c>
     </row>
     <row r="1247">
@@ -25526,10 +25526,10 @@
         <v>14</v>
       </c>
       <c r="E1247" t="n">
-        <v>0.0828</v>
+        <v>0.0829</v>
       </c>
       <c r="F1247" t="n">
-        <v>0.7237</v>
+        <v>0.7213</v>
       </c>
     </row>
     <row r="1248">
@@ -25626,7 +25626,7 @@
         <v>14</v>
       </c>
       <c r="E1252" t="n">
-        <v>0.2115</v>
+        <v>0.2114</v>
       </c>
       <c r="F1252" t="n">
         <v>0.0042</v>
@@ -25646,7 +25646,7 @@
         <v>14</v>
       </c>
       <c r="E1253" t="n">
-        <v>0.2063</v>
+        <v>0.2062</v>
       </c>
       <c r="F1253" t="n">
         <v>0.0052</v>
@@ -25706,7 +25706,7 @@
         <v>14</v>
       </c>
       <c r="E1256" t="n">
-        <v>0.1903</v>
+        <v>0.1902</v>
       </c>
       <c r="F1256" t="n">
         <v>0.0001</v>
@@ -25726,10 +25726,10 @@
         <v>14</v>
       </c>
       <c r="E1257" t="n">
-        <v>0.1828</v>
+        <v>0.183</v>
       </c>
       <c r="F1257" t="n">
-        <v>0.0007</v>
+        <v>0.0006</v>
       </c>
     </row>
     <row r="1258">
@@ -25806,7 +25806,7 @@
         <v>15</v>
       </c>
       <c r="E1261" t="n">
-        <v>0.6675</v>
+        <v>0.6676</v>
       </c>
       <c r="F1261" t="n">
         <v>0</v>
@@ -25986,7 +25986,7 @@
         <v>14</v>
       </c>
       <c r="E1270" t="n">
-        <v>0.3712</v>
+        <v>0.3709</v>
       </c>
       <c r="F1270" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>14</v>
       </c>
       <c r="E1271" t="n">
-        <v>0.244</v>
+        <v>0.2435</v>
       </c>
       <c r="F1271" t="n">
-        <v>0.0032</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="1272">
@@ -26206,10 +26206,10 @@
         <v>14</v>
       </c>
       <c r="E1281" t="n">
-        <v>0.0247</v>
+        <v>0.0244</v>
       </c>
       <c r="F1281" t="n">
-        <v>0.0329</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="1282">
@@ -26346,10 +26346,10 @@
         <v>14</v>
       </c>
       <c r="E1288" t="n">
-        <v>0.0808</v>
+        <v>0.0809</v>
       </c>
       <c r="F1288" t="n">
-        <v>0.8725</v>
+        <v>0.8716</v>
       </c>
     </row>
     <row r="1289">
@@ -26366,10 +26366,10 @@
         <v>14</v>
       </c>
       <c r="E1289" t="n">
-        <v>0.0541</v>
+        <v>0.0543</v>
       </c>
       <c r="F1289" t="n">
-        <v>0.9974</v>
+        <v>0.9973</v>
       </c>
     </row>
     <row r="1290">
@@ -26466,10 +26466,10 @@
         <v>14</v>
       </c>
       <c r="E1294" t="n">
-        <v>0.23</v>
+        <v>0.2303</v>
       </c>
       <c r="F1294" t="n">
-        <v>0.0073</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="1295">
@@ -26486,10 +26486,10 @@
         <v>14</v>
       </c>
       <c r="E1295" t="n">
-        <v>0.1739</v>
+        <v>0.1745</v>
       </c>
       <c r="F1295" t="n">
-        <v>0.0762</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="1296">
@@ -26546,7 +26546,7 @@
         <v>14</v>
       </c>
       <c r="E1298" t="n">
-        <v>0.2214</v>
+        <v>0.2217</v>
       </c>
       <c r="F1298" t="n">
         <v>0</v>
@@ -26566,10 +26566,10 @@
         <v>14</v>
       </c>
       <c r="E1299" t="n">
-        <v>0.2025</v>
+        <v>0.2031</v>
       </c>
       <c r="F1299" t="n">
-        <v>0.0015</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="1300">
@@ -26626,7 +26626,7 @@
         <v>15</v>
       </c>
       <c r="E1302" t="n">
-        <v>0.6002</v>
+        <v>0.5999</v>
       </c>
       <c r="F1302" t="n">
         <v>0</v>
@@ -26826,7 +26826,7 @@
         <v>14</v>
       </c>
       <c r="E1312" t="n">
-        <v>0.2779</v>
+        <v>0.278</v>
       </c>
       <c r="F1312" t="n">
         <v>0</v>
@@ -26846,7 +26846,7 @@
         <v>14</v>
       </c>
       <c r="E1313" t="n">
-        <v>0.2807</v>
+        <v>0.2804</v>
       </c>
       <c r="F1313" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>14</v>
       </c>
       <c r="E1322" t="n">
-        <v>0.043</v>
+        <v>0.0428</v>
       </c>
       <c r="F1322" t="n">
         <v>0</v>
@@ -27046,7 +27046,7 @@
         <v>14</v>
       </c>
       <c r="E1323" t="n">
-        <v>0.031</v>
+        <v>0.0311</v>
       </c>
       <c r="F1323" t="n">
         <v>0.0002</v>
@@ -27186,10 +27186,10 @@
         <v>14</v>
       </c>
       <c r="E1330" t="n">
-        <v>0.0749</v>
+        <v>0.075</v>
       </c>
       <c r="F1330" t="n">
-        <v>0.8336</v>
+        <v>0.8324</v>
       </c>
     </row>
     <row r="1331">
@@ -27206,10 +27206,10 @@
         <v>14</v>
       </c>
       <c r="E1331" t="n">
-        <v>0.0719</v>
+        <v>0.0714</v>
       </c>
       <c r="F1331" t="n">
-        <v>0.8684</v>
+        <v>0.8732</v>
       </c>
     </row>
     <row r="1332">
@@ -27306,10 +27306,10 @@
         <v>14</v>
       </c>
       <c r="E1336" t="n">
-        <v>0.2037</v>
+        <v>0.2038</v>
       </c>
       <c r="F1336" t="n">
-        <v>0.0071</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="1337">
@@ -27326,10 +27326,10 @@
         <v>14</v>
       </c>
       <c r="E1337" t="n">
-        <v>0.1937</v>
+        <v>0.1935</v>
       </c>
       <c r="F1337" t="n">
-        <v>0.0113</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="1338">
@@ -27386,7 +27386,7 @@
         <v>14</v>
       </c>
       <c r="E1340" t="n">
-        <v>0.1675</v>
+        <v>0.1674</v>
       </c>
       <c r="F1340" t="n">
         <v>0.0004</v>
@@ -27406,10 +27406,10 @@
         <v>14</v>
       </c>
       <c r="E1341" t="n">
-        <v>0.179</v>
+        <v>0.1796</v>
       </c>
       <c r="F1341" t="n">
-        <v>0.0007</v>
+        <v>0.0006</v>
       </c>
     </row>
     <row r="1342">
@@ -27486,7 +27486,7 @@
         <v>15</v>
       </c>
       <c r="E1345" t="n">
-        <v>0.5602</v>
+        <v>0.5597</v>
       </c>
       <c r="F1345" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>14</v>
       </c>
       <c r="E1354" t="n">
-        <v>0.3161</v>
+        <v>0.316</v>
       </c>
       <c r="F1354" t="n">
         <v>0</v>
@@ -27686,7 +27686,7 @@
         <v>14</v>
       </c>
       <c r="E1355" t="n">
-        <v>0.465</v>
+        <v>0.4652</v>
       </c>
       <c r="F1355" t="n">
         <v>0</v>
@@ -27869,7 +27869,7 @@
         <v>0.013</v>
       </c>
       <c r="F1364" t="n">
-        <v>0.2117</v>
+        <v>0.2151</v>
       </c>
     </row>
     <row r="1365">
@@ -27886,10 +27886,10 @@
         <v>14</v>
       </c>
       <c r="E1365" t="n">
-        <v>0.0224</v>
+        <v>0.0225</v>
       </c>
       <c r="F1365" t="n">
-        <v>0.0194</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="1366">
@@ -28026,10 +28026,10 @@
         <v>14</v>
       </c>
       <c r="E1372" t="n">
-        <v>0.1001</v>
+        <v>0.1</v>
       </c>
       <c r="F1372" t="n">
-        <v>0.5535</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="1373">
@@ -28046,10 +28046,10 @@
         <v>14</v>
       </c>
       <c r="E1373" t="n">
-        <v>0.0694</v>
+        <v>0.0693</v>
       </c>
       <c r="F1373" t="n">
-        <v>0.9223</v>
+        <v>0.9226</v>
       </c>
     </row>
     <row r="1374">
@@ -28146,7 +28146,7 @@
         <v>14</v>
       </c>
       <c r="E1378" t="n">
-        <v>0.2685</v>
+        <v>0.2684</v>
       </c>
       <c r="F1378" t="n">
         <v>0.0002</v>
@@ -28166,7 +28166,7 @@
         <v>14</v>
       </c>
       <c r="E1379" t="n">
-        <v>0.3173</v>
+        <v>0.3174</v>
       </c>
       <c r="F1379" t="n">
         <v>0</v>
@@ -28226,7 +28226,7 @@
         <v>14</v>
       </c>
       <c r="E1382" t="n">
-        <v>0.1789</v>
+        <v>0.179</v>
       </c>
       <c r="F1382" t="n">
         <v>0.0002</v>
@@ -28246,7 +28246,7 @@
         <v>14</v>
       </c>
       <c r="E1383" t="n">
-        <v>0.2064</v>
+        <v>0.2065</v>
       </c>
       <c r="F1383" t="n">
         <v>0.0001</v>
@@ -28306,7 +28306,7 @@
         <v>15</v>
       </c>
       <c r="E1386" t="n">
-        <v>0.5293</v>
+        <v>0.5295</v>
       </c>
       <c r="F1386" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         <v>15</v>
       </c>
       <c r="E1387" t="n">
-        <v>0.7717</v>
+        <v>0.7716</v>
       </c>
       <c r="F1387" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>14</v>
       </c>
       <c r="E1396" t="n">
-        <v>0.3422</v>
+        <v>0.3424</v>
       </c>
       <c r="F1396" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>14</v>
       </c>
       <c r="E1397" t="n">
-        <v>0.3287</v>
+        <v>0.3285</v>
       </c>
       <c r="F1397" t="n">
         <v>0</v>
@@ -28726,10 +28726,10 @@
         <v>14</v>
       </c>
       <c r="E1407" t="n">
-        <v>0.0142</v>
+        <v>0.0144</v>
       </c>
       <c r="F1407" t="n">
-        <v>0.3222</v>
+        <v>0.3065</v>
       </c>
     </row>
     <row r="1408">
@@ -28869,7 +28869,7 @@
         <v>0.0819</v>
       </c>
       <c r="F1414" t="n">
-        <v>0.7918</v>
+        <v>0.7922</v>
       </c>
     </row>
     <row r="1415">
@@ -28886,10 +28886,10 @@
         <v>14</v>
       </c>
       <c r="E1415" t="n">
-        <v>0.0659</v>
+        <v>0.0661</v>
       </c>
       <c r="F1415" t="n">
-        <v>0.9473</v>
+        <v>0.9463</v>
       </c>
     </row>
     <row r="1416">
@@ -28986,7 +28986,7 @@
         <v>14</v>
       </c>
       <c r="E1420" t="n">
-        <v>0.2168</v>
+        <v>0.2169</v>
       </c>
       <c r="F1420" t="n">
         <v>0.0053</v>
@@ -29006,7 +29006,7 @@
         <v>14</v>
       </c>
       <c r="E1421" t="n">
-        <v>0.2367</v>
+        <v>0.2369</v>
       </c>
       <c r="F1421" t="n">
         <v>0.0017</v>
@@ -29066,7 +29066,7 @@
         <v>14</v>
       </c>
       <c r="E1424" t="n">
-        <v>0.1662</v>
+        <v>0.1663</v>
       </c>
       <c r="F1424" t="n">
         <v>0.0005</v>
@@ -29086,7 +29086,7 @@
         <v>14</v>
       </c>
       <c r="E1425" t="n">
-        <v>0.2091</v>
+        <v>0.2093</v>
       </c>
       <c r="F1425" t="n">
         <v>0.0001</v>
@@ -29146,7 +29146,7 @@
         <v>15</v>
       </c>
       <c r="E1428" t="n">
-        <v>0.5657</v>
+        <v>0.5656</v>
       </c>
       <c r="F1428" t="n">
         <v>0</v>
@@ -29166,7 +29166,7 @@
         <v>15</v>
       </c>
       <c r="E1429" t="n">
-        <v>0.8181</v>
+        <v>0.8179</v>
       </c>
       <c r="F1429" t="n">
         <v>0</v>
@@ -29346,10 +29346,10 @@
         <v>14</v>
       </c>
       <c r="E1438" t="n">
-        <v>0.245</v>
+        <v>0.2448</v>
       </c>
       <c r="F1438" t="n">
-        <v>0.001</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="1439">
@@ -29366,7 +29366,7 @@
         <v>14</v>
       </c>
       <c r="E1439" t="n">
-        <v>0.338</v>
+        <v>0.3381</v>
       </c>
       <c r="F1439" t="n">
         <v>0</v>
@@ -29546,7 +29546,7 @@
         <v>14</v>
       </c>
       <c r="E1448" t="n">
-        <v>0.027</v>
+        <v>0.0272</v>
       </c>
       <c r="F1448" t="n">
         <v>0.0002</v>
@@ -29569,7 +29569,7 @@
         <v>0.0124</v>
       </c>
       <c r="F1449" t="n">
-        <v>0.4917</v>
+        <v>0.4899</v>
       </c>
     </row>
     <row r="1450">
@@ -29709,7 +29709,7 @@
         <v>0.0789</v>
       </c>
       <c r="F1456" t="n">
-        <v>0.8277</v>
+        <v>0.8279</v>
       </c>
     </row>
     <row r="1457">
@@ -29726,10 +29726,10 @@
         <v>14</v>
       </c>
       <c r="E1457" t="n">
-        <v>0.0939</v>
+        <v>0.0938</v>
       </c>
       <c r="F1457" t="n">
-        <v>0.6349</v>
+        <v>0.6368</v>
       </c>
     </row>
     <row r="1458">
@@ -29829,7 +29829,7 @@
         <v>0.1886</v>
       </c>
       <c r="F1462" t="n">
-        <v>0.0227</v>
+        <v>0.0226</v>
       </c>
     </row>
     <row r="1463">
@@ -29846,10 +29846,10 @@
         <v>14</v>
       </c>
       <c r="E1463" t="n">
-        <v>0.1792</v>
+        <v>0.1793</v>
       </c>
       <c r="F1463" t="n">
-        <v>0.0349</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="1464">
@@ -29906,10 +29906,10 @@
         <v>14</v>
       </c>
       <c r="E1466" t="n">
-        <v>0.1784</v>
+        <v>0.1783</v>
       </c>
       <c r="F1466" t="n">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="1467">
@@ -29926,7 +29926,7 @@
         <v>14</v>
       </c>
       <c r="E1467" t="n">
-        <v>0.1829</v>
+        <v>0.183</v>
       </c>
       <c r="F1467" t="n">
         <v>0.0013</v>
@@ -29986,7 +29986,7 @@
         <v>15</v>
       </c>
       <c r="E1470" t="n">
-        <v>0.5184</v>
+        <v>0.5182</v>
       </c>
       <c r="F1470" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>15</v>
       </c>
       <c r="E1471" t="n">
-        <v>0.7884</v>
+        <v>0.7886</v>
       </c>
       <c r="F1471" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>14</v>
       </c>
       <c r="E1480" t="n">
-        <v>0.2423</v>
+        <v>0.2419</v>
       </c>
       <c r="F1480" t="n">
         <v>0.0011</v>
@@ -30386,7 +30386,7 @@
         <v>14</v>
       </c>
       <c r="E1490" t="n">
-        <v>0.0805</v>
+        <v>0.0807</v>
       </c>
       <c r="F1490" t="n">
         <v>0</v>
@@ -30406,10 +30406,10 @@
         <v>14</v>
       </c>
       <c r="E1491" t="n">
-        <v>0.0127</v>
+        <v>0.0125</v>
       </c>
       <c r="F1491" t="n">
-        <v>0.4957</v>
+        <v>0.5156</v>
       </c>
     </row>
     <row r="1492">
@@ -30546,10 +30546,10 @@
         <v>14</v>
       </c>
       <c r="E1498" t="n">
-        <v>0.088</v>
+        <v>0.0877</v>
       </c>
       <c r="F1498" t="n">
-        <v>0.7051</v>
+        <v>0.7092</v>
       </c>
     </row>
     <row r="1499">
@@ -30566,10 +30566,10 @@
         <v>14</v>
       </c>
       <c r="E1499" t="n">
-        <v>0.0524</v>
+        <v>0.0526</v>
       </c>
       <c r="F1499" t="n">
-        <v>0.9947</v>
+        <v>0.9943</v>
       </c>
     </row>
     <row r="1500">
@@ -30666,7 +30666,7 @@
         <v>14</v>
       </c>
       <c r="E1504" t="n">
-        <v>0.3048</v>
+        <v>0.3044</v>
       </c>
       <c r="F1504" t="n">
         <v>0</v>
@@ -30686,10 +30686,10 @@
         <v>14</v>
       </c>
       <c r="E1505" t="n">
-        <v>0.1882</v>
+        <v>0.1881</v>
       </c>
       <c r="F1505" t="n">
-        <v>0.0215</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="1506">
@@ -30746,7 +30746,7 @@
         <v>14</v>
       </c>
       <c r="E1508" t="n">
-        <v>0.2705</v>
+        <v>0.2707</v>
       </c>
       <c r="F1508" t="n">
         <v>0</v>
@@ -30766,7 +30766,7 @@
         <v>14</v>
       </c>
       <c r="E1509" t="n">
-        <v>0.1878</v>
+        <v>0.1877</v>
       </c>
       <c r="F1509" t="n">
         <v>0.0006</v>
@@ -30826,7 +30826,7 @@
         <v>15</v>
       </c>
       <c r="E1512" t="n">
-        <v>0.6021</v>
+        <v>0.6016</v>
       </c>
       <c r="F1512" t="n">
         <v>0</v>
@@ -30846,7 +30846,7 @@
         <v>15</v>
       </c>
       <c r="E1513" t="n">
-        <v>0.9637</v>
+        <v>0.9638</v>
       </c>
       <c r="F1513" t="n">
         <v>0</v>
@@ -31226,7 +31226,7 @@
         <v>14</v>
       </c>
       <c r="E1532" t="n">
-        <v>0.0463</v>
+        <v>0.0462</v>
       </c>
       <c r="F1532" t="n">
         <v>0</v>
@@ -31246,10 +31246,10 @@
         <v>14</v>
       </c>
       <c r="E1533" t="n">
-        <v>0.0064</v>
+        <v>0.0063</v>
       </c>
       <c r="F1533" t="n">
-        <v>0.9923</v>
+        <v>0.9934</v>
       </c>
     </row>
     <row r="1534">
@@ -31386,10 +31386,10 @@
         <v>14</v>
       </c>
       <c r="E1540" t="n">
-        <v>0.0762</v>
+        <v>0.0758</v>
       </c>
       <c r="F1540" t="n">
-        <v>0.8376</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="1541">
@@ -31406,10 +31406,10 @@
         <v>14</v>
       </c>
       <c r="E1541" t="n">
-        <v>0.0658</v>
+        <v>0.0661</v>
       </c>
       <c r="F1541" t="n">
-        <v>0.9371</v>
+        <v>0.9355</v>
       </c>
     </row>
     <row r="1542">
@@ -31506,7 +31506,7 @@
         <v>14</v>
       </c>
       <c r="E1546" t="n">
-        <v>0.2221</v>
+        <v>0.2224</v>
       </c>
       <c r="F1546" t="n">
         <v>0.0036</v>
@@ -31526,10 +31526,10 @@
         <v>14</v>
       </c>
       <c r="E1547" t="n">
-        <v>0.2201</v>
+        <v>0.22</v>
       </c>
       <c r="F1547" t="n">
-        <v>0.0033</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="1548">
@@ -31606,7 +31606,7 @@
         <v>14</v>
       </c>
       <c r="E1551" t="n">
-        <v>0.2071</v>
+        <v>0.207</v>
       </c>
       <c r="F1551" t="n">
         <v>0</v>
@@ -31866,7 +31866,7 @@
         <v>14</v>
       </c>
       <c r="E1564" t="n">
-        <v>0.3585</v>
+        <v>0.3588</v>
       </c>
       <c r="F1564" t="n">
         <v>0</v>
@@ -31886,7 +31886,7 @@
         <v>14</v>
       </c>
       <c r="E1565" t="n">
-        <v>0.4819</v>
+        <v>0.4821</v>
       </c>
       <c r="F1565" t="n">
         <v>0</v>
@@ -32066,7 +32066,7 @@
         <v>14</v>
       </c>
       <c r="E1574" t="n">
-        <v>0.0434</v>
+        <v>0.0436</v>
       </c>
       <c r="F1574" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>14</v>
       </c>
       <c r="E1575" t="n">
-        <v>0.0307</v>
+        <v>0.0308</v>
       </c>
       <c r="F1575" t="n">
         <v>0.0002</v>
@@ -32226,10 +32226,10 @@
         <v>14</v>
       </c>
       <c r="E1582" t="n">
-        <v>0.0895</v>
+        <v>0.0897</v>
       </c>
       <c r="F1582" t="n">
-        <v>0.6752</v>
+        <v>0.6718</v>
       </c>
     </row>
     <row r="1583">
@@ -32246,10 +32246,10 @@
         <v>14</v>
       </c>
       <c r="E1583" t="n">
-        <v>0.0881</v>
+        <v>0.0878</v>
       </c>
       <c r="F1583" t="n">
-        <v>0.6945</v>
+        <v>0.6976</v>
       </c>
     </row>
     <row r="1584">
@@ -32346,7 +32346,7 @@
         <v>14</v>
       </c>
       <c r="E1588" t="n">
-        <v>0.2311</v>
+        <v>0.2314</v>
       </c>
       <c r="F1588" t="n">
         <v>0.0021</v>
@@ -32366,10 +32366,10 @@
         <v>14</v>
       </c>
       <c r="E1589" t="n">
-        <v>0.2357</v>
+        <v>0.2359</v>
       </c>
       <c r="F1589" t="n">
-        <v>0.0015</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="1590">
@@ -32426,7 +32426,7 @@
         <v>14</v>
       </c>
       <c r="E1592" t="n">
-        <v>0.2462</v>
+        <v>0.2464</v>
       </c>
       <c r="F1592" t="n">
         <v>0</v>
@@ -32446,7 +32446,7 @@
         <v>14</v>
       </c>
       <c r="E1593" t="n">
-        <v>0.2268</v>
+        <v>0.227</v>
       </c>
       <c r="F1593" t="n">
         <v>0</v>
@@ -32506,7 +32506,7 @@
         <v>15</v>
       </c>
       <c r="E1596" t="n">
-        <v>0.5715</v>
+        <v>0.5717</v>
       </c>
       <c r="F1596" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>14</v>
       </c>
       <c r="E1606" t="n">
-        <v>0.3064</v>
+        <v>0.3063</v>
       </c>
       <c r="F1606" t="n">
         <v>0</v>
@@ -32726,7 +32726,7 @@
         <v>14</v>
       </c>
       <c r="E1607" t="n">
-        <v>0.3601</v>
+        <v>0.3599</v>
       </c>
       <c r="F1607" t="n">
         <v>0</v>
@@ -32906,7 +32906,7 @@
         <v>14</v>
       </c>
       <c r="E1616" t="n">
-        <v>0.0275</v>
+        <v>0.0277</v>
       </c>
       <c r="F1616" t="n">
         <v>0</v>
@@ -32929,7 +32929,7 @@
         <v>0.0149</v>
       </c>
       <c r="F1617" t="n">
-        <v>0.2444</v>
+        <v>0.2509</v>
       </c>
     </row>
     <row r="1618">
@@ -33066,10 +33066,10 @@
         <v>14</v>
       </c>
       <c r="E1624" t="n">
-        <v>0.0789</v>
+        <v>0.0787</v>
       </c>
       <c r="F1624" t="n">
-        <v>0.7979</v>
+        <v>0.8005</v>
       </c>
     </row>
     <row r="1625">
@@ -33086,10 +33086,10 @@
         <v>14</v>
       </c>
       <c r="E1625" t="n">
-        <v>0.0978</v>
+        <v>0.0979</v>
       </c>
       <c r="F1625" t="n">
-        <v>0.5427</v>
+        <v>0.5414</v>
       </c>
     </row>
     <row r="1626">
@@ -33186,10 +33186,10 @@
         <v>14</v>
       </c>
       <c r="E1630" t="n">
-        <v>0.1935</v>
+        <v>0.1932</v>
       </c>
       <c r="F1630" t="n">
-        <v>0.0154</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="1631">
@@ -33206,7 +33206,7 @@
         <v>14</v>
       </c>
       <c r="E1631" t="n">
-        <v>0.2108</v>
+        <v>0.2107</v>
       </c>
       <c r="F1631" t="n">
         <v>0.0052</v>
@@ -33266,7 +33266,7 @@
         <v>14</v>
       </c>
       <c r="E1634" t="n">
-        <v>0.1709</v>
+        <v>0.1712</v>
       </c>
       <c r="F1634" t="n">
         <v>0.0003</v>
@@ -33286,7 +33286,7 @@
         <v>14</v>
       </c>
       <c r="E1635" t="n">
-        <v>0.1978</v>
+        <v>0.1979</v>
       </c>
       <c r="F1635" t="n">
         <v>0.0001</v>
@@ -33366,7 +33366,7 @@
         <v>15</v>
       </c>
       <c r="E1639" t="n">
-        <v>0.8804</v>
+        <v>0.8806</v>
       </c>
       <c r="F1639" t="n">
         <v>0</v>
@@ -33566,7 +33566,7 @@
         <v>14</v>
       </c>
       <c r="E1649" t="n">
-        <v>0.3217</v>
+        <v>0.3215</v>
       </c>
       <c r="F1649" t="n">
         <v>0</v>
@@ -33746,7 +33746,7 @@
         <v>14</v>
       </c>
       <c r="E1658" t="n">
-        <v>0.048</v>
+        <v>0.0478</v>
       </c>
       <c r="F1658" t="n">
         <v>0</v>
@@ -33766,10 +33766,10 @@
         <v>14</v>
       </c>
       <c r="E1659" t="n">
-        <v>0.0237</v>
+        <v>0.0238</v>
       </c>
       <c r="F1659" t="n">
-        <v>0.0089</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="1660">
@@ -33906,10 +33906,10 @@
         <v>14</v>
       </c>
       <c r="E1666" t="n">
-        <v>0.0977</v>
+        <v>0.0979</v>
       </c>
       <c r="F1666" t="n">
-        <v>0.5254</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="1667">
@@ -33929,7 +33929,7 @@
         <v>0.1127</v>
       </c>
       <c r="F1667" t="n">
-        <v>0.3452</v>
+        <v>0.3448</v>
       </c>
     </row>
     <row r="1668">
@@ -34046,7 +34046,7 @@
         <v>14</v>
       </c>
       <c r="E1673" t="n">
-        <v>0.3104</v>
+        <v>0.3103</v>
       </c>
       <c r="F1673" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>14</v>
       </c>
       <c r="E1677" t="n">
-        <v>0.1908</v>
+        <v>0.191</v>
       </c>
       <c r="F1677" t="n">
         <v>0.0002</v>
@@ -34186,7 +34186,7 @@
         <v>15</v>
       </c>
       <c r="E1680" t="n">
-        <v>0.5982</v>
+        <v>0.598</v>
       </c>
       <c r="F1680" t="n">
         <v>0</v>
@@ -34206,7 +34206,7 @@
         <v>15</v>
       </c>
       <c r="E1681" t="n">
-        <v>0.5448</v>
+        <v>0.5447</v>
       </c>
       <c r="F1681" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>14</v>
       </c>
       <c r="E1690" t="n">
-        <v>0.4634</v>
+        <v>0.4632</v>
       </c>
       <c r="F1690" t="n">
         <v>0</v>
@@ -34406,7 +34406,7 @@
         <v>14</v>
       </c>
       <c r="E1691" t="n">
-        <v>0.3504</v>
+        <v>0.3503</v>
       </c>
       <c r="F1691" t="n">
         <v>0</v>
@@ -34586,7 +34586,7 @@
         <v>14</v>
       </c>
       <c r="E1700" t="n">
-        <v>0.0689</v>
+        <v>0.0692</v>
       </c>
       <c r="F1700" t="n">
         <v>0</v>
@@ -34606,10 +34606,10 @@
         <v>14</v>
       </c>
       <c r="E1701" t="n">
-        <v>0.0077</v>
+        <v>0.0079</v>
       </c>
       <c r="F1701" t="n">
-        <v>0.9306</v>
+        <v>0.9163</v>
       </c>
     </row>
     <row r="1702">
@@ -34746,10 +34746,10 @@
         <v>14</v>
       </c>
       <c r="E1708" t="n">
-        <v>0.081</v>
+        <v>0.0808</v>
       </c>
       <c r="F1708" t="n">
-        <v>0.7711</v>
+        <v>0.7741</v>
       </c>
     </row>
     <row r="1709">
@@ -34766,10 +34766,10 @@
         <v>14</v>
       </c>
       <c r="E1709" t="n">
-        <v>0.0746</v>
+        <v>0.0744</v>
       </c>
       <c r="F1709" t="n">
-        <v>0.8499</v>
+        <v>0.8524</v>
       </c>
     </row>
     <row r="1710">
@@ -34866,10 +34866,10 @@
         <v>14</v>
       </c>
       <c r="E1714" t="n">
-        <v>0.2097</v>
+        <v>0.2094</v>
       </c>
       <c r="F1714" t="n">
-        <v>0.0055</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="1715">
@@ -34886,7 +34886,7 @@
         <v>14</v>
       </c>
       <c r="E1715" t="n">
-        <v>0.1979</v>
+        <v>0.198</v>
       </c>
       <c r="F1715" t="n">
         <v>0.0105</v>
@@ -34946,7 +34946,7 @@
         <v>14</v>
       </c>
       <c r="E1718" t="n">
-        <v>0.2267</v>
+        <v>0.2265</v>
       </c>
       <c r="F1718" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>15</v>
       </c>
       <c r="E1722" t="n">
-        <v>0.5015</v>
+        <v>0.5017</v>
       </c>
       <c r="F1722" t="n">
         <v>0</v>
@@ -35046,7 +35046,7 @@
         <v>15</v>
       </c>
       <c r="E1723" t="n">
-        <v>0.5157</v>
+        <v>0.5156</v>
       </c>
       <c r="F1723" t="n">
         <v>0</v>
@@ -35226,7 +35226,7 @@
         <v>14</v>
       </c>
       <c r="E1732" t="n">
-        <v>0.3668</v>
+        <v>0.3665</v>
       </c>
       <c r="F1732" t="n">
         <v>0</v>
@@ -35246,7 +35246,7 @@
         <v>14</v>
       </c>
       <c r="E1733" t="n">
-        <v>0.3914</v>
+        <v>0.3912</v>
       </c>
       <c r="F1733" t="n">
         <v>0</v>
@@ -35446,10 +35446,10 @@
         <v>14</v>
       </c>
       <c r="E1743" t="n">
-        <v>0.0105</v>
+        <v>0.0106</v>
       </c>
       <c r="F1743" t="n">
-        <v>0.6904</v>
+        <v>0.6727</v>
       </c>
     </row>
     <row r="1744">
@@ -35589,7 +35589,7 @@
         <v>0.0781</v>
       </c>
       <c r="F1750" t="n">
-        <v>0.8301</v>
+        <v>0.8303</v>
       </c>
     </row>
     <row r="1751">
@@ -35606,10 +35606,10 @@
         <v>14</v>
       </c>
       <c r="E1751" t="n">
-        <v>0.0594</v>
+        <v>0.0592</v>
       </c>
       <c r="F1751" t="n">
-        <v>0.9778</v>
+        <v>0.9782</v>
       </c>
     </row>
     <row r="1752">
@@ -35706,10 +35706,10 @@
         <v>14</v>
       </c>
       <c r="E1756" t="n">
-        <v>0.1947</v>
+        <v>0.1949</v>
       </c>
       <c r="F1756" t="n">
-        <v>0.0182</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="1757">
@@ -35726,10 +35726,10 @@
         <v>14</v>
       </c>
       <c r="E1757" t="n">
-        <v>0.196</v>
+        <v>0.1962</v>
       </c>
       <c r="F1757" t="n">
-        <v>0.0146</v>
+        <v>0.0145</v>
       </c>
     </row>
     <row r="1758">
@@ -35806,10 +35806,10 @@
         <v>14</v>
       </c>
       <c r="E1761" t="n">
-        <v>0.1812</v>
+        <v>0.1814</v>
       </c>
       <c r="F1761" t="n">
-        <v>0.0015</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="1762">
@@ -35866,7 +35866,7 @@
         <v>15</v>
       </c>
       <c r="E1764" t="n">
-        <v>0.5995</v>
+        <v>0.5998</v>
       </c>
       <c r="F1764" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>15</v>
       </c>
       <c r="E1765" t="n">
-        <v>0.8179</v>
+        <v>0.818</v>
       </c>
       <c r="F1765" t="n">
         <v>0</v>
@@ -36266,7 +36266,7 @@
         <v>14</v>
       </c>
       <c r="E1784" t="n">
-        <v>0.0336</v>
+        <v>0.0334</v>
       </c>
       <c r="F1784" t="n">
         <v>0</v>
@@ -36286,10 +36286,10 @@
         <v>14</v>
       </c>
       <c r="E1785" t="n">
-        <v>0.0106</v>
+        <v>0.0105</v>
       </c>
       <c r="F1785" t="n">
-        <v>0.7178</v>
+        <v>0.7278</v>
       </c>
     </row>
     <row r="1786">
@@ -36426,7 +36426,7 @@
         <v>14</v>
       </c>
       <c r="E1792" t="n">
-        <v>0.0767</v>
+        <v>0.0766</v>
       </c>
       <c r="F1792" t="n">
         <v>0.8396</v>
@@ -36626,7 +36626,7 @@
         <v>14</v>
       </c>
       <c r="E1802" t="n">
-        <v>0.1845</v>
+        <v>0.1843</v>
       </c>
       <c r="F1802" t="n">
         <v>0.0001</v>
@@ -36646,7 +36646,7 @@
         <v>14</v>
       </c>
       <c r="E1803" t="n">
-        <v>0.2072</v>
+        <v>0.2071</v>
       </c>
       <c r="F1803" t="n">
         <v>0.0001</v>
@@ -36726,7 +36726,7 @@
         <v>15</v>
       </c>
       <c r="E1807" t="n">
-        <v>0.862</v>
+        <v>0.8623</v>
       </c>
       <c r="F1807" t="n">
         <v>0</v>
@@ -36906,7 +36906,7 @@
         <v>14</v>
       </c>
       <c r="E1816" t="n">
-        <v>0.2684</v>
+        <v>0.2682</v>
       </c>
       <c r="F1816" t="n">
         <v>0.0006</v>
@@ -36926,7 +36926,7 @@
         <v>14</v>
       </c>
       <c r="E1817" t="n">
-        <v>0.4652</v>
+        <v>0.465</v>
       </c>
       <c r="F1817" t="n">
         <v>0</v>
@@ -37106,7 +37106,7 @@
         <v>14</v>
       </c>
       <c r="E1826" t="n">
-        <v>0.0457</v>
+        <v>0.0456</v>
       </c>
       <c r="F1826" t="n">
         <v>0</v>
@@ -37126,10 +37126,10 @@
         <v>14</v>
       </c>
       <c r="E1827" t="n">
-        <v>0.0181</v>
+        <v>0.0178</v>
       </c>
       <c r="F1827" t="n">
-        <v>0.1581</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="1828">
@@ -37266,10 +37266,10 @@
         <v>14</v>
       </c>
       <c r="E1834" t="n">
-        <v>0.0867</v>
+        <v>0.0868</v>
       </c>
       <c r="F1834" t="n">
-        <v>0.7943</v>
+        <v>0.7929</v>
       </c>
     </row>
     <row r="1835">
@@ -37286,10 +37286,10 @@
         <v>14</v>
       </c>
       <c r="E1835" t="n">
-        <v>0.0672</v>
+        <v>0.0674</v>
       </c>
       <c r="F1835" t="n">
-        <v>0.9618</v>
+        <v>0.9611</v>
       </c>
     </row>
     <row r="1836">
@@ -37386,10 +37386,10 @@
         <v>14</v>
       </c>
       <c r="E1840" t="n">
-        <v>0.1922</v>
+        <v>0.1921</v>
       </c>
       <c r="F1840" t="n">
-        <v>0.032</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="1841">
@@ -37406,10 +37406,10 @@
         <v>14</v>
       </c>
       <c r="E1841" t="n">
-        <v>0.1974</v>
+        <v>0.1971</v>
       </c>
       <c r="F1841" t="n">
-        <v>0.0255</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="1842">
@@ -37466,7 +37466,7 @@
         <v>14</v>
       </c>
       <c r="E1844" t="n">
-        <v>0.1601</v>
+        <v>0.1599</v>
       </c>
       <c r="F1844" t="n">
         <v>0.0043</v>
@@ -37486,10 +37486,10 @@
         <v>14</v>
       </c>
       <c r="E1845" t="n">
-        <v>0.1749</v>
+        <v>0.1747</v>
       </c>
       <c r="F1845" t="n">
-        <v>0.0039</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="1846">
@@ -37546,7 +37546,7 @@
         <v>15</v>
       </c>
       <c r="E1848" t="n">
-        <v>0.5723</v>
+        <v>0.5724</v>
       </c>
       <c r="F1848" t="n">
         <v>0</v>
@@ -37746,7 +37746,7 @@
         <v>14</v>
       </c>
       <c r="E1858" t="n">
-        <v>0.3336</v>
+        <v>0.3335</v>
       </c>
       <c r="F1858" t="n">
         <v>0</v>
@@ -37766,7 +37766,7 @@
         <v>14</v>
       </c>
       <c r="E1859" t="n">
-        <v>0.2736</v>
+        <v>0.2737</v>
       </c>
       <c r="F1859" t="n">
         <v>0.0001</v>
@@ -37946,7 +37946,7 @@
         <v>14</v>
       </c>
       <c r="E1868" t="n">
-        <v>0.0491</v>
+        <v>0.0492</v>
       </c>
       <c r="F1868" t="n">
         <v>0</v>
@@ -37966,10 +37966,10 @@
         <v>14</v>
       </c>
       <c r="E1869" t="n">
-        <v>0.0076</v>
+        <v>0.0077</v>
       </c>
       <c r="F1869" t="n">
-        <v>0.9749</v>
+        <v>0.9706</v>
       </c>
     </row>
     <row r="1870">
@@ -38106,10 +38106,10 @@
         <v>14</v>
       </c>
       <c r="E1876" t="n">
-        <v>0.0858</v>
+        <v>0.0855</v>
       </c>
       <c r="F1876" t="n">
-        <v>0.7344</v>
+        <v>0.7374</v>
       </c>
     </row>
     <row r="1877">
@@ -38126,10 +38126,10 @@
         <v>14</v>
       </c>
       <c r="E1877" t="n">
-        <v>0.0597</v>
+        <v>0.0596</v>
       </c>
       <c r="F1877" t="n">
-        <v>0.9766</v>
+        <v>0.9769</v>
       </c>
     </row>
     <row r="1878">
@@ -38226,10 +38226,10 @@
         <v>14</v>
       </c>
       <c r="E1882" t="n">
-        <v>0.2086</v>
+        <v>0.2085</v>
       </c>
       <c r="F1882" t="n">
-        <v>0.0076</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="1883">
@@ -38246,7 +38246,7 @@
         <v>14</v>
       </c>
       <c r="E1883" t="n">
-        <v>0.2267</v>
+        <v>0.2268</v>
       </c>
       <c r="F1883" t="n">
         <v>0.0028</v>
@@ -38306,7 +38306,7 @@
         <v>14</v>
       </c>
       <c r="E1886" t="n">
-        <v>0.1872</v>
+        <v>0.1871</v>
       </c>
       <c r="F1886" t="n">
         <v>0.0001</v>
@@ -38326,7 +38326,7 @@
         <v>14</v>
       </c>
       <c r="E1887" t="n">
-        <v>0.1842</v>
+        <v>0.1843</v>
       </c>
       <c r="F1887" t="n">
         <v>0.0016</v>
@@ -38386,7 +38386,7 @@
         <v>15</v>
       </c>
       <c r="E1890" t="n">
-        <v>0.5252</v>
+        <v>0.5251</v>
       </c>
       <c r="F1890" t="n">
         <v>0</v>
@@ -38406,7 +38406,7 @@
         <v>15</v>
       </c>
       <c r="E1891" t="n">
-        <v>0.7273</v>
+        <v>0.7274</v>
       </c>
       <c r="F1891" t="n">
         <v>0</v>
@@ -38586,7 +38586,7 @@
         <v>14</v>
       </c>
       <c r="E1900" t="n">
-        <v>0.2555</v>
+        <v>0.255</v>
       </c>
       <c r="F1900" t="n">
         <v>0.0007</v>
@@ -38606,7 +38606,7 @@
         <v>14</v>
       </c>
       <c r="E1901" t="n">
-        <v>0.3024</v>
+        <v>0.3025</v>
       </c>
       <c r="F1901" t="n">
         <v>0</v>
@@ -38786,7 +38786,7 @@
         <v>14</v>
       </c>
       <c r="E1910" t="n">
-        <v>0.0459</v>
+        <v>0.0461</v>
       </c>
       <c r="F1910" t="n">
         <v>0</v>
@@ -38806,10 +38806,10 @@
         <v>14</v>
       </c>
       <c r="E1911" t="n">
-        <v>0.0116</v>
+        <v>0.0118</v>
       </c>
       <c r="F1911" t="n">
-        <v>0.6747</v>
+        <v>0.6596</v>
       </c>
     </row>
     <row r="1912">
@@ -38949,7 +38949,7 @@
         <v>0.0801</v>
       </c>
       <c r="F1918" t="n">
-        <v>0.8281</v>
+        <v>0.8282</v>
       </c>
     </row>
     <row r="1919">
@@ -38969,7 +38969,7 @@
         <v>0.0655</v>
       </c>
       <c r="F1919" t="n">
-        <v>0.956</v>
+        <v>0.9558</v>
       </c>
     </row>
     <row r="1920">
@@ -39066,10 +39066,10 @@
         <v>14</v>
       </c>
       <c r="E1924" t="n">
-        <v>0.2063</v>
+        <v>0.2058</v>
       </c>
       <c r="F1924" t="n">
-        <v>0.0111</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="1925">
@@ -39086,10 +39086,10 @@
         <v>14</v>
       </c>
       <c r="E1925" t="n">
-        <v>0.1649</v>
+        <v>0.1648</v>
       </c>
       <c r="F1925" t="n">
-        <v>0.0765</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="1926">
@@ -39146,7 +39146,7 @@
         <v>14</v>
       </c>
       <c r="E1928" t="n">
-        <v>0.2095</v>
+        <v>0.21</v>
       </c>
       <c r="F1928" t="n">
         <v>0</v>
@@ -39166,10 +39166,10 @@
         <v>14</v>
       </c>
       <c r="E1929" t="n">
-        <v>0.1552</v>
+        <v>0.1553</v>
       </c>
       <c r="F1929" t="n">
-        <v>0.0134</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="1930">
@@ -39226,7 +39226,7 @@
         <v>15</v>
       </c>
       <c r="E1932" t="n">
-        <v>0.5135</v>
+        <v>0.5129</v>
       </c>
       <c r="F1932" t="n">
         <v>0</v>
@@ -39246,7 +39246,7 @@
         <v>15</v>
       </c>
       <c r="E1933" t="n">
-        <v>0.816</v>
+        <v>0.8159</v>
       </c>
       <c r="F1933" t="n">
         <v>0</v>
@@ -39426,7 +39426,7 @@
         <v>14</v>
       </c>
       <c r="E1942" t="n">
-        <v>0.3698</v>
+        <v>0.3692</v>
       </c>
       <c r="F1942" t="n">
         <v>0</v>
@@ -39446,7 +39446,7 @@
         <v>14</v>
       </c>
       <c r="E1943" t="n">
-        <v>0.2638</v>
+        <v>0.2639</v>
       </c>
       <c r="F1943" t="n">
         <v>0.0006</v>
@@ -39626,7 +39626,7 @@
         <v>14</v>
       </c>
       <c r="E1952" t="n">
-        <v>0.0475</v>
+        <v>0.0468</v>
       </c>
       <c r="F1952" t="n">
         <v>0</v>
@@ -39646,10 +39646,10 @@
         <v>14</v>
       </c>
       <c r="E1953" t="n">
-        <v>0.0061</v>
+        <v>0.006</v>
       </c>
       <c r="F1953" t="n">
-        <v>0.9987</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="1954">
@@ -39786,10 +39786,10 @@
         <v>14</v>
       </c>
       <c r="E1960" t="n">
-        <v>0.0955</v>
+        <v>0.095</v>
       </c>
       <c r="F1960" t="n">
-        <v>0.6657</v>
+        <v>0.6722</v>
       </c>
     </row>
     <row r="1961">
@@ -39806,10 +39806,10 @@
         <v>14</v>
       </c>
       <c r="E1961" t="n">
-        <v>0.0728</v>
+        <v>0.073</v>
       </c>
       <c r="F1961" t="n">
-        <v>0.9181</v>
+        <v>0.9165</v>
       </c>
     </row>
     <row r="1962">
@@ -39906,10 +39906,10 @@
         <v>14</v>
       </c>
       <c r="E1966" t="n">
-        <v>0.2343</v>
+        <v>0.2342</v>
       </c>
       <c r="F1966" t="n">
-        <v>0.0034</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="1967">
@@ -39929,7 +39929,7 @@
         <v>0.2121</v>
       </c>
       <c r="F1967" t="n">
-        <v>0.0109</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="1968">
@@ -39986,7 +39986,7 @@
         <v>14</v>
       </c>
       <c r="E1970" t="n">
-        <v>0.2571</v>
+        <v>0.2566</v>
       </c>
       <c r="F1970" t="n">
         <v>0</v>
@@ -40006,10 +40006,10 @@
         <v>14</v>
       </c>
       <c r="E1971" t="n">
-        <v>0.1582</v>
+        <v>0.1581</v>
       </c>
       <c r="F1971" t="n">
-        <v>0.0099</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1972">
@@ -40066,7 +40066,7 @@
         <v>15</v>
       </c>
       <c r="E1974" t="n">
-        <v>0.4906</v>
+        <v>0.49</v>
       </c>
       <c r="F1974" t="n">
         <v>0</v>
@@ -40086,7 +40086,7 @@
         <v>15</v>
       </c>
       <c r="E1975" t="n">
-        <v>0.8155</v>
+        <v>0.8154</v>
       </c>
       <c r="F1975" t="n">
         <v>0</v>
@@ -40266,7 +40266,7 @@
         <v>14</v>
       </c>
       <c r="E1984" t="n">
-        <v>0.2877</v>
+        <v>0.2879</v>
       </c>
       <c r="F1984" t="n">
         <v>0</v>
@@ -40466,7 +40466,7 @@
         <v>14</v>
       </c>
       <c r="E1994" t="n">
-        <v>0.0308</v>
+        <v>0.0306</v>
       </c>
       <c r="F1994" t="n">
         <v>0</v>
@@ -40486,10 +40486,10 @@
         <v>14</v>
       </c>
       <c r="E1995" t="n">
-        <v>0.0249</v>
+        <v>0.0248</v>
       </c>
       <c r="F1995" t="n">
-        <v>0.0023</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="1996">
@@ -40626,10 +40626,10 @@
         <v>14</v>
       </c>
       <c r="E2002" t="n">
-        <v>0.0518</v>
+        <v>0.0521</v>
       </c>
       <c r="F2002" t="n">
-        <v>0.9926</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="2003">
@@ -40646,10 +40646,10 @@
         <v>14</v>
       </c>
       <c r="E2003" t="n">
-        <v>0.0492</v>
+        <v>0.0495</v>
       </c>
       <c r="F2003" t="n">
-        <v>0.9962</v>
+        <v>0.9959</v>
       </c>
     </row>
     <row r="2004">
@@ -40746,10 +40746,10 @@
         <v>14</v>
       </c>
       <c r="E2008" t="n">
-        <v>0.2088</v>
+        <v>0.2089</v>
       </c>
       <c r="F2008" t="n">
-        <v>0.0049</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="2009">
@@ -40826,7 +40826,7 @@
         <v>14</v>
       </c>
       <c r="E2012" t="n">
-        <v>0.1892</v>
+        <v>0.189</v>
       </c>
       <c r="F2012" t="n">
         <v>0</v>
@@ -40846,7 +40846,7 @@
         <v>14</v>
       </c>
       <c r="E2013" t="n">
-        <v>0.1838</v>
+        <v>0.1836</v>
       </c>
       <c r="F2013" t="n">
         <v>0.0002</v>
@@ -40906,7 +40906,7 @@
         <v>15</v>
       </c>
       <c r="E2016" t="n">
-        <v>0.5801</v>
+        <v>0.5804</v>
       </c>
       <c r="F2016" t="n">
         <v>0</v>
@@ -40926,7 +40926,7 @@
         <v>15</v>
       </c>
       <c r="E2017" t="n">
-        <v>0.502</v>
+        <v>0.5022</v>
       </c>
       <c r="F2017" t="n">
         <v>0</v>
@@ -41106,7 +41106,7 @@
         <v>14</v>
       </c>
       <c r="E2026" t="n">
-        <v>0.2317</v>
+        <v>0.2318</v>
       </c>
       <c r="F2026" t="n">
         <v>0.0012</v>
@@ -41126,7 +41126,7 @@
         <v>14</v>
       </c>
       <c r="E2027" t="n">
-        <v>0.2833</v>
+        <v>0.2832</v>
       </c>
       <c r="F2027" t="n">
         <v>0</v>
@@ -41306,7 +41306,7 @@
         <v>14</v>
       </c>
       <c r="E2036" t="n">
-        <v>0.0382</v>
+        <v>0.0381</v>
       </c>
       <c r="F2036" t="n">
         <v>0</v>
@@ -41466,10 +41466,10 @@
         <v>14</v>
       </c>
       <c r="E2044" t="n">
-        <v>0.0666</v>
+        <v>0.0668</v>
       </c>
       <c r="F2044" t="n">
-        <v>0.9192</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="2045">
@@ -41486,10 +41486,10 @@
         <v>14</v>
       </c>
       <c r="E2045" t="n">
-        <v>0.0625</v>
+        <v>0.0626</v>
       </c>
       <c r="F2045" t="n">
-        <v>0.9501</v>
+        <v>0.9494</v>
       </c>
     </row>
     <row r="2046">
@@ -41586,10 +41586,10 @@
         <v>14</v>
       </c>
       <c r="E2050" t="n">
-        <v>0.2121</v>
+        <v>0.2118</v>
       </c>
       <c r="F2050" t="n">
-        <v>0.004</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="2051">
@@ -41606,10 +41606,10 @@
         <v>14</v>
       </c>
       <c r="E2051" t="n">
-        <v>0.1905</v>
+        <v>0.1906</v>
       </c>
       <c r="F2051" t="n">
-        <v>0.0134</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="2052">
@@ -41686,7 +41686,7 @@
         <v>14</v>
       </c>
       <c r="E2055" t="n">
-        <v>0.1834</v>
+        <v>0.1835</v>
       </c>
       <c r="F2055" t="n">
         <v>0.0008</v>
@@ -41746,7 +41746,7 @@
         <v>15</v>
       </c>
       <c r="E2058" t="n">
-        <v>0.8436</v>
+        <v>0.8434</v>
       </c>
       <c r="F2058" t="n">
         <v>0</v>
@@ -41766,7 +41766,7 @@
         <v>15</v>
       </c>
       <c r="E2059" t="n">
-        <v>0.7481</v>
+        <v>0.748</v>
       </c>
       <c r="F2059" t="n">
         <v>0</v>
@@ -41946,7 +41946,7 @@
         <v>14</v>
       </c>
       <c r="E2068" t="n">
-        <v>0.3285</v>
+        <v>0.3279</v>
       </c>
       <c r="F2068" t="n">
         <v>0</v>
@@ -41966,7 +41966,7 @@
         <v>14</v>
       </c>
       <c r="E2069" t="n">
-        <v>0.3464</v>
+        <v>0.3467</v>
       </c>
       <c r="F2069" t="n">
         <v>0</v>
@@ -42146,7 +42146,7 @@
         <v>14</v>
       </c>
       <c r="E2078" t="n">
-        <v>0.0266</v>
+        <v>0.0268</v>
       </c>
       <c r="F2078" t="n">
         <v>0.0001</v>
@@ -42166,10 +42166,10 @@
         <v>14</v>
       </c>
       <c r="E2079" t="n">
-        <v>0.0317</v>
+        <v>0.0315</v>
       </c>
       <c r="F2079" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="2080">
@@ -42306,10 +42306,10 @@
         <v>14</v>
       </c>
       <c r="E2086" t="n">
-        <v>0.1043</v>
+        <v>0.1038</v>
       </c>
       <c r="F2086" t="n">
-        <v>0.3972</v>
+        <v>0.4027</v>
       </c>
     </row>
     <row r="2087">
@@ -42326,10 +42326,10 @@
         <v>14</v>
       </c>
       <c r="E2087" t="n">
-        <v>0.0821</v>
+        <v>0.0822</v>
       </c>
       <c r="F2087" t="n">
-        <v>0.7008</v>
+        <v>0.6992</v>
       </c>
     </row>
     <row r="2088">
@@ -42426,10 +42426,10 @@
         <v>14</v>
       </c>
       <c r="E2092" t="n">
-        <v>0.2204</v>
+        <v>0.2198</v>
       </c>
       <c r="F2092" t="n">
-        <v>0.0015</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="2093">
@@ -42446,7 +42446,7 @@
         <v>14</v>
       </c>
       <c r="E2093" t="n">
-        <v>0.2046</v>
+        <v>0.2049</v>
       </c>
       <c r="F2093" t="n">
         <v>0.0044</v>
@@ -42506,7 +42506,7 @@
         <v>14</v>
       </c>
       <c r="E2096" t="n">
-        <v>0.1967</v>
+        <v>0.1961</v>
       </c>
       <c r="F2096" t="n">
         <v>0</v>
@@ -42526,7 +42526,7 @@
         <v>14</v>
       </c>
       <c r="E2097" t="n">
-        <v>0.1743</v>
+        <v>0.1746</v>
       </c>
       <c r="F2097" t="n">
         <v>0.0008</v>
@@ -42586,7 +42586,7 @@
         <v>15</v>
       </c>
       <c r="E2100" t="n">
-        <v>0.4945</v>
+        <v>0.4938</v>
       </c>
       <c r="F2100" t="n">
         <v>0</v>
@@ -42606,7 +42606,7 @@
         <v>15</v>
       </c>
       <c r="E2101" t="n">
-        <v>0.5194</v>
+        <v>0.5191</v>
       </c>
       <c r="F2101" t="n">
         <v>0</v>
@@ -42786,7 +42786,7 @@
         <v>14</v>
       </c>
       <c r="E2110" t="n">
-        <v>0.2724</v>
+        <v>0.2725</v>
       </c>
       <c r="F2110" t="n">
         <v>0</v>
@@ -42986,10 +42986,10 @@
         <v>14</v>
       </c>
       <c r="E2120" t="n">
-        <v>0.0213</v>
+        <v>0.0215</v>
       </c>
       <c r="F2120" t="n">
-        <v>0.0037</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="2121">
@@ -43006,10 +43006,10 @@
         <v>14</v>
       </c>
       <c r="E2121" t="n">
-        <v>0.0166</v>
+        <v>0.0168</v>
       </c>
       <c r="F2121" t="n">
-        <v>0.1266</v>
+        <v>0.1192</v>
       </c>
     </row>
     <row r="2122">
@@ -43146,10 +43146,10 @@
         <v>14</v>
       </c>
       <c r="E2128" t="n">
-        <v>0.0517</v>
+        <v>0.0515</v>
       </c>
       <c r="F2128" t="n">
-        <v>0.989</v>
+        <v>0.9894</v>
       </c>
     </row>
     <row r="2129">
@@ -43169,7 +43169,7 @@
         <v>0.0625</v>
       </c>
       <c r="F2129" t="n">
-        <v>0.9344</v>
+        <v>0.9347</v>
       </c>
     </row>
     <row r="2130">
@@ -43266,10 +43266,10 @@
         <v>14</v>
       </c>
       <c r="E2134" t="n">
-        <v>0.1921</v>
+        <v>0.1919</v>
       </c>
       <c r="F2134" t="n">
-        <v>0.0085</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="2135">
@@ -43346,7 +43346,7 @@
         <v>14</v>
       </c>
       <c r="E2138" t="n">
-        <v>0.1736</v>
+        <v>0.1737</v>
       </c>
       <c r="F2138" t="n">
         <v>0.0001</v>
@@ -43366,7 +43366,7 @@
         <v>14</v>
       </c>
       <c r="E2139" t="n">
-        <v>0.1737</v>
+        <v>0.1738</v>
       </c>
       <c r="F2139" t="n">
         <v>0.0009</v>
@@ -43426,7 +43426,7 @@
         <v>15</v>
       </c>
       <c r="E2142" t="n">
-        <v>0.5659</v>
+        <v>0.5662</v>
       </c>
       <c r="F2142" t="n">
         <v>0</v>
@@ -43626,7 +43626,7 @@
         <v>14</v>
       </c>
       <c r="E2152" t="n">
-        <v>0.3085</v>
+        <v>0.3088</v>
       </c>
       <c r="F2152" t="n">
         <v>0</v>
@@ -43826,7 +43826,7 @@
         <v>14</v>
       </c>
       <c r="E2162" t="n">
-        <v>0.025</v>
+        <v>0.0251</v>
       </c>
       <c r="F2162" t="n">
         <v>0.0003</v>
@@ -43846,10 +43846,10 @@
         <v>14</v>
       </c>
       <c r="E2163" t="n">
-        <v>0.0164</v>
+        <v>0.0163</v>
       </c>
       <c r="F2163" t="n">
-        <v>0.1857</v>
+        <v>0.1908</v>
       </c>
     </row>
     <row r="2164">
@@ -43986,7 +43986,7 @@
         <v>14</v>
       </c>
       <c r="E2170" t="n">
-        <v>0.0722</v>
+        <v>0.0723</v>
       </c>
       <c r="F2170" t="n">
         <v>0.8346</v>
@@ -44006,10 +44006,10 @@
         <v>14</v>
       </c>
       <c r="E2171" t="n">
-        <v>0.0553</v>
+        <v>0.0554</v>
       </c>
       <c r="F2171" t="n">
-        <v>0.9774</v>
+        <v>0.9772</v>
       </c>
     </row>
     <row r="2172">
@@ -44106,7 +44106,7 @@
         <v>14</v>
       </c>
       <c r="E2176" t="n">
-        <v>0.2312</v>
+        <v>0.2313</v>
       </c>
       <c r="F2176" t="n">
         <v>0.0008</v>
@@ -44126,10 +44126,10 @@
         <v>14</v>
       </c>
       <c r="E2177" t="n">
-        <v>0.1468</v>
+        <v>0.1466</v>
       </c>
       <c r="F2177" t="n">
-        <v>0.0825</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="2178">
@@ -44186,7 +44186,7 @@
         <v>14</v>
       </c>
       <c r="E2180" t="n">
-        <v>0.1636</v>
+        <v>0.1638</v>
       </c>
       <c r="F2180" t="n">
         <v>0.0004</v>
@@ -44206,10 +44206,10 @@
         <v>14</v>
       </c>
       <c r="E2181" t="n">
-        <v>0.1353</v>
+        <v>0.1352</v>
       </c>
       <c r="F2181" t="n">
-        <v>0.0257</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="2182">
@@ -44266,7 +44266,7 @@
         <v>15</v>
       </c>
       <c r="E2184" t="n">
-        <v>0.6404</v>
+        <v>0.6405</v>
       </c>
       <c r="F2184" t="n">
         <v>0</v>
@@ -44286,7 +44286,7 @@
         <v>15</v>
       </c>
       <c r="E2185" t="n">
-        <v>0.5103</v>
+        <v>0.5104</v>
       </c>
       <c r="F2185" t="n">
         <v>0</v>
@@ -44466,7 +44466,7 @@
         <v>14</v>
       </c>
       <c r="E2194" t="n">
-        <v>0.3399</v>
+        <v>0.3401</v>
       </c>
       <c r="F2194" t="n">
         <v>0</v>
@@ -44486,7 +44486,7 @@
         <v>14</v>
       </c>
       <c r="E2195" t="n">
-        <v>0.3702</v>
+        <v>0.3699</v>
       </c>
       <c r="F2195" t="n">
         <v>0</v>
@@ -44666,10 +44666,10 @@
         <v>14</v>
       </c>
       <c r="E2204" t="n">
-        <v>0.0143</v>
+        <v>0.0146</v>
       </c>
       <c r="F2204" t="n">
-        <v>0.0969</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="2205">
@@ -44686,10 +44686,10 @@
         <v>14</v>
       </c>
       <c r="E2205" t="n">
-        <v>0.0121</v>
+        <v>0.0124</v>
       </c>
       <c r="F2205" t="n">
-        <v>0.5514</v>
+        <v>0.5227</v>
       </c>
     </row>
     <row r="2206">
@@ -44826,10 +44826,10 @@
         <v>14</v>
       </c>
       <c r="E2212" t="n">
-        <v>0.0834</v>
+        <v>0.0831</v>
       </c>
       <c r="F2212" t="n">
-        <v>0.6744</v>
+        <v>0.6789</v>
       </c>
     </row>
     <row r="2213">
@@ -44846,10 +44846,10 @@
         <v>14</v>
       </c>
       <c r="E2213" t="n">
-        <v>0.1151</v>
+        <v>0.1157</v>
       </c>
       <c r="F2213" t="n">
-        <v>0.2731</v>
+        <v>0.2679</v>
       </c>
     </row>
     <row r="2214">
@@ -44946,7 +44946,7 @@
         <v>14</v>
       </c>
       <c r="E2218" t="n">
-        <v>0.2278</v>
+        <v>0.228</v>
       </c>
       <c r="F2218" t="n">
         <v>0.0009</v>
@@ -44966,7 +44966,7 @@
         <v>14</v>
       </c>
       <c r="E2219" t="n">
-        <v>0.2499</v>
+        <v>0.2501</v>
       </c>
       <c r="F2219" t="n">
         <v>0.0002</v>
@@ -45026,7 +45026,7 @@
         <v>14</v>
       </c>
       <c r="E2222" t="n">
-        <v>0.1866</v>
+        <v>0.1865</v>
       </c>
       <c r="F2222" t="n">
         <v>0</v>
@@ -45046,7 +45046,7 @@
         <v>14</v>
       </c>
       <c r="E2223" t="n">
-        <v>0.1982</v>
+        <v>0.1985</v>
       </c>
       <c r="F2223" t="n">
         <v>0.0002</v>
@@ -45106,7 +45106,7 @@
         <v>15</v>
       </c>
       <c r="E2226" t="n">
-        <v>0.5665</v>
+        <v>0.5667</v>
       </c>
       <c r="F2226" t="n">
         <v>0</v>
@@ -45126,7 +45126,7 @@
         <v>15</v>
       </c>
       <c r="E2227" t="n">
-        <v>0.5741</v>
+        <v>0.5736</v>
       </c>
       <c r="F2227" t="n">
         <v>0</v>
@@ -45306,7 +45306,7 @@
         <v>14</v>
       </c>
       <c r="E2236" t="n">
-        <v>0.2937</v>
+        <v>0.2939</v>
       </c>
       <c r="F2236" t="n">
         <v>0</v>
@@ -45326,7 +45326,7 @@
         <v>14</v>
       </c>
       <c r="E2237" t="n">
-        <v>0.2504</v>
+        <v>0.2505</v>
       </c>
       <c r="F2237" t="n">
         <v>0.0002</v>
@@ -45506,10 +45506,10 @@
         <v>14</v>
       </c>
       <c r="E2246" t="n">
-        <v>0.0231</v>
+        <v>0.0235</v>
       </c>
       <c r="F2246" t="n">
-        <v>0.0009</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="2247">
@@ -45526,7 +45526,7 @@
         <v>14</v>
       </c>
       <c r="E2247" t="n">
-        <v>0.03</v>
+        <v>0.0303</v>
       </c>
       <c r="F2247" t="n">
         <v>0.0002</v>
@@ -45666,10 +45666,10 @@
         <v>14</v>
       </c>
       <c r="E2254" t="n">
-        <v>0.0889</v>
+        <v>0.0886</v>
       </c>
       <c r="F2254" t="n">
-        <v>0.594</v>
+        <v>0.5976</v>
       </c>
     </row>
     <row r="2255">
@@ -45689,7 +45689,7 @@
         <v>0.0702</v>
       </c>
       <c r="F2255" t="n">
-        <v>0.854</v>
+        <v>0.8536</v>
       </c>
     </row>
     <row r="2256">
@@ -45786,10 +45786,10 @@
         <v>14</v>
       </c>
       <c r="E2260" t="n">
-        <v>0.2091</v>
+        <v>0.2089</v>
       </c>
       <c r="F2260" t="n">
-        <v>0.0028</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="2261">
@@ -45866,7 +45866,7 @@
         <v>14</v>
       </c>
       <c r="E2264" t="n">
-        <v>0.1761</v>
+        <v>0.1758</v>
       </c>
       <c r="F2264" t="n">
         <v>0.0001</v>
@@ -45886,7 +45886,7 @@
         <v>14</v>
       </c>
       <c r="E2265" t="n">
-        <v>0.2041</v>
+        <v>0.2042</v>
       </c>
       <c r="F2265" t="n">
         <v>0</v>
@@ -45946,7 +45946,7 @@
         <v>15</v>
       </c>
       <c r="E2268" t="n">
-        <v>0.5133</v>
+        <v>0.5132</v>
       </c>
       <c r="F2268" t="n">
         <v>0</v>
@@ -45966,7 +45966,7 @@
         <v>15</v>
       </c>
       <c r="E2269" t="n">
-        <v>0.5516</v>
+        <v>0.5518</v>
       </c>
       <c r="F2269" t="n">
         <v>0</v>
@@ -46146,7 +46146,7 @@
         <v>14</v>
       </c>
       <c r="E2278" t="n">
-        <v>0.4176</v>
+        <v>0.4177</v>
       </c>
       <c r="F2278" t="n">
         <v>0</v>
@@ -46166,7 +46166,7 @@
         <v>14</v>
       </c>
       <c r="E2279" t="n">
-        <v>0.2632</v>
+        <v>0.2629</v>
       </c>
       <c r="F2279" t="n">
         <v>0.0001</v>
@@ -46349,7 +46349,7 @@
         <v>0.0186</v>
       </c>
       <c r="F2288" t="n">
-        <v>0.0128</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="2289">
@@ -46506,10 +46506,10 @@
         <v>14</v>
       </c>
       <c r="E2296" t="n">
-        <v>0.0712</v>
+        <v>0.0711</v>
       </c>
       <c r="F2296" t="n">
-        <v>0.8477</v>
+        <v>0.8482</v>
       </c>
     </row>
     <row r="2297">
@@ -46526,10 +46526,10 @@
         <v>14</v>
       </c>
       <c r="E2297" t="n">
-        <v>0.0814</v>
+        <v>0.0816</v>
       </c>
       <c r="F2297" t="n">
-        <v>0.7105</v>
+        <v>0.7079</v>
       </c>
     </row>
     <row r="2298">
@@ -46626,7 +46626,7 @@
         <v>14</v>
       </c>
       <c r="E2302" t="n">
-        <v>0.2111</v>
+        <v>0.2109</v>
       </c>
       <c r="F2302" t="n">
         <v>0.003</v>
@@ -46646,10 +46646,10 @@
         <v>14</v>
       </c>
       <c r="E2303" t="n">
-        <v>0.1919</v>
+        <v>0.1921</v>
       </c>
       <c r="F2303" t="n">
-        <v>0.0086</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="2304">
@@ -46706,7 +46706,7 @@
         <v>14</v>
       </c>
       <c r="E2306" t="n">
-        <v>0.1682</v>
+        <v>0.1684</v>
       </c>
       <c r="F2306" t="n">
         <v>0.0002</v>
@@ -46726,7 +46726,7 @@
         <v>14</v>
       </c>
       <c r="E2307" t="n">
-        <v>0.1855</v>
+        <v>0.1857</v>
       </c>
       <c r="F2307" t="n">
         <v>0.0003</v>
@@ -46786,7 +46786,7 @@
         <v>15</v>
       </c>
       <c r="E2310" t="n">
-        <v>0.5136</v>
+        <v>0.5137</v>
       </c>
       <c r="F2310" t="n">
         <v>0</v>
@@ -46806,7 +46806,7 @@
         <v>15</v>
       </c>
       <c r="E2311" t="n">
-        <v>0.5548</v>
+        <v>0.5546</v>
       </c>
       <c r="F2311" t="n">
         <v>0</v>
@@ -47006,7 +47006,7 @@
         <v>14</v>
       </c>
       <c r="E2321" t="n">
-        <v>0.3598</v>
+        <v>0.3596</v>
       </c>
       <c r="F2321" t="n">
         <v>0</v>
@@ -47186,10 +47186,10 @@
         <v>14</v>
       </c>
       <c r="E2330" t="n">
-        <v>0.0124</v>
+        <v>0.0125</v>
       </c>
       <c r="F2330" t="n">
-        <v>0.2471</v>
+        <v>0.2457</v>
       </c>
     </row>
     <row r="2331">
@@ -47209,7 +47209,7 @@
         <v>0.0068</v>
       </c>
       <c r="F2331" t="n">
-        <v>0.9814</v>
+        <v>0.9826</v>
       </c>
     </row>
     <row r="2332">
@@ -47346,10 +47346,10 @@
         <v>14</v>
       </c>
       <c r="E2338" t="n">
-        <v>0.0698</v>
+        <v>0.0697</v>
       </c>
       <c r="F2338" t="n">
-        <v>0.8747</v>
+        <v>0.8754</v>
       </c>
     </row>
     <row r="2339">
@@ -47369,7 +47369,7 @@
         <v>0.0777</v>
       </c>
       <c r="F2339" t="n">
-        <v>0.7777</v>
+        <v>0.7772</v>
       </c>
     </row>
     <row r="2340">
@@ -47486,7 +47486,7 @@
         <v>14</v>
       </c>
       <c r="E2345" t="n">
-        <v>0.22</v>
+        <v>0.2199</v>
       </c>
       <c r="F2345" t="n">
         <v>0.0019</v>
@@ -47626,7 +47626,7 @@
         <v>15</v>
       </c>
       <c r="E2352" t="n">
-        <v>0.6478</v>
+        <v>0.648</v>
       </c>
       <c r="F2352" t="n">
         <v>0</v>
@@ -47646,7 +47646,7 @@
         <v>15</v>
       </c>
       <c r="E2353" t="n">
-        <v>0.7661</v>
+        <v>0.7659</v>
       </c>
       <c r="F2353" t="n">
         <v>0</v>
@@ -47826,7 +47826,7 @@
         <v>14</v>
       </c>
       <c r="E2362" t="n">
-        <v>0.3294</v>
+        <v>0.3298</v>
       </c>
       <c r="F2362" t="n">
         <v>0</v>
@@ -47846,7 +47846,7 @@
         <v>14</v>
       </c>
       <c r="E2363" t="n">
-        <v>0.3677</v>
+        <v>0.3675</v>
       </c>
       <c r="F2363" t="n">
         <v>0</v>
@@ -48026,10 +48026,10 @@
         <v>14</v>
       </c>
       <c r="E2372" t="n">
-        <v>0.0213</v>
+        <v>0.0218</v>
       </c>
       <c r="F2372" t="n">
-        <v>0.0022</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="2373">
@@ -48046,10 +48046,10 @@
         <v>14</v>
       </c>
       <c r="E2373" t="n">
-        <v>0.0096</v>
+        <v>0.0097</v>
       </c>
       <c r="F2373" t="n">
-        <v>0.7706</v>
+        <v>0.7573</v>
       </c>
     </row>
     <row r="2374">
@@ -48189,7 +48189,7 @@
         <v>0.0605</v>
       </c>
       <c r="F2380" t="n">
-        <v>0.9466</v>
+        <v>0.9463</v>
       </c>
     </row>
     <row r="2381">
@@ -48206,10 +48206,10 @@
         <v>14</v>
       </c>
       <c r="E2381" t="n">
-        <v>0.0457</v>
+        <v>0.0456</v>
       </c>
       <c r="F2381" t="n">
-        <v>0.9976</v>
+        <v>0.9977</v>
       </c>
     </row>
     <row r="2382">
@@ -48306,10 +48306,10 @@
         <v>14</v>
       </c>
       <c r="E2386" t="n">
-        <v>0.2094</v>
+        <v>0.2098</v>
       </c>
       <c r="F2386" t="n">
-        <v>0.0028</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="2387">
@@ -48326,7 +48326,7 @@
         <v>14</v>
       </c>
       <c r="E2387" t="n">
-        <v>0.2077</v>
+        <v>0.2075</v>
       </c>
       <c r="F2387" t="n">
         <v>0.0031</v>
@@ -48386,7 +48386,7 @@
         <v>14</v>
       </c>
       <c r="E2390" t="n">
-        <v>0.1783</v>
+        <v>0.1787</v>
       </c>
       <c r="F2390" t="n">
         <v>0.0001</v>
@@ -48406,7 +48406,7 @@
         <v>14</v>
       </c>
       <c r="E2391" t="n">
-        <v>0.1764</v>
+        <v>0.1763</v>
       </c>
       <c r="F2391" t="n">
         <v>0.0006</v>
@@ -48486,7 +48486,7 @@
         <v>15</v>
       </c>
       <c r="E2395" t="n">
-        <v>0.7431</v>
+        <v>0.7429</v>
       </c>
       <c r="F2395" t="n">
         <v>0</v>
@@ -48666,7 +48666,7 @@
         <v>14</v>
       </c>
       <c r="E2404" t="n">
-        <v>0.3234</v>
+        <v>0.3231</v>
       </c>
       <c r="F2404" t="n">
         <v>0</v>
@@ -48886,10 +48886,10 @@
         <v>14</v>
       </c>
       <c r="E2415" t="n">
-        <v>0.0201</v>
+        <v>0.0204</v>
       </c>
       <c r="F2415" t="n">
-        <v>0.0399</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="2416">
@@ -49026,10 +49026,10 @@
         <v>14</v>
       </c>
       <c r="E2422" t="n">
-        <v>0.0657</v>
+        <v>0.0658</v>
       </c>
       <c r="F2422" t="n">
-        <v>0.9071</v>
+        <v>0.9055</v>
       </c>
     </row>
     <row r="2423">
@@ -49046,10 +49046,10 @@
         <v>14</v>
       </c>
       <c r="E2423" t="n">
-        <v>0.0632</v>
+        <v>0.063</v>
       </c>
       <c r="F2423" t="n">
-        <v>0.9291</v>
+        <v>0.9308</v>
       </c>
     </row>
     <row r="2424">
@@ -49146,10 +49146,10 @@
         <v>14</v>
       </c>
       <c r="E2428" t="n">
-        <v>0.1798</v>
+        <v>0.1799</v>
       </c>
       <c r="F2428" t="n">
-        <v>0.0179</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="2429">
@@ -49166,10 +49166,10 @@
         <v>14</v>
       </c>
       <c r="E2429" t="n">
-        <v>0.1785</v>
+        <v>0.1782</v>
       </c>
       <c r="F2429" t="n">
-        <v>0.0179</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="2430">
@@ -49226,7 +49226,7 @@
         <v>14</v>
       </c>
       <c r="E2432" t="n">
-        <v>0.1772</v>
+        <v>0.1773</v>
       </c>
       <c r="F2432" t="n">
         <v>0.0001</v>
@@ -49246,7 +49246,7 @@
         <v>14</v>
       </c>
       <c r="E2433" t="n">
-        <v>0.1673</v>
+        <v>0.1675</v>
       </c>
       <c r="F2433" t="n">
         <v>0.0014</v>
@@ -49306,7 +49306,7 @@
         <v>15</v>
       </c>
       <c r="E2436" t="n">
-        <v>0.5862</v>
+        <v>0.5866</v>
       </c>
       <c r="F2436" t="n">
         <v>0</v>
@@ -49326,7 +49326,7 @@
         <v>15</v>
       </c>
       <c r="E2437" t="n">
-        <v>0.7226</v>
+        <v>0.7225</v>
       </c>
       <c r="F2437" t="n">
         <v>0</v>
@@ -49506,7 +49506,7 @@
         <v>14</v>
       </c>
       <c r="E2446" t="n">
-        <v>0.358</v>
+        <v>0.3576</v>
       </c>
       <c r="F2446" t="n">
         <v>0</v>
@@ -49526,7 +49526,7 @@
         <v>14</v>
       </c>
       <c r="E2447" t="n">
-        <v>0.442</v>
+        <v>0.4422</v>
       </c>
       <c r="F2447" t="n">
         <v>0</v>
@@ -49706,10 +49706,10 @@
         <v>14</v>
       </c>
       <c r="E2456" t="n">
-        <v>0.0216</v>
+        <v>0.0212</v>
       </c>
       <c r="F2456" t="n">
-        <v>0.0025</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="2457">
@@ -49726,10 +49726,10 @@
         <v>14</v>
       </c>
       <c r="E2457" t="n">
-        <v>0.0133</v>
+        <v>0.0134</v>
       </c>
       <c r="F2457" t="n">
-        <v>0.4683</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="2458">
@@ -49866,10 +49866,10 @@
         <v>14</v>
       </c>
       <c r="E2464" t="n">
-        <v>0.08</v>
+        <v>0.0799</v>
       </c>
       <c r="F2464" t="n">
-        <v>0.7313</v>
+        <v>0.7324</v>
       </c>
     </row>
     <row r="2465">
@@ -49886,10 +49886,10 @@
         <v>14</v>
       </c>
       <c r="E2465" t="n">
-        <v>0.0845</v>
+        <v>0.0844</v>
       </c>
       <c r="F2465" t="n">
-        <v>0.6661</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="2466">
@@ -49986,10 +49986,10 @@
         <v>14</v>
       </c>
       <c r="E2470" t="n">
-        <v>0.1831</v>
+        <v>0.1832</v>
       </c>
       <c r="F2470" t="n">
-        <v>0.014</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="2471">
@@ -50006,7 +50006,7 @@
         <v>14</v>
       </c>
       <c r="E2471" t="n">
-        <v>0.3044</v>
+        <v>0.3045</v>
       </c>
       <c r="F2471" t="n">
         <v>0</v>
@@ -50066,7 +50066,7 @@
         <v>14</v>
       </c>
       <c r="E2474" t="n">
-        <v>0.2113</v>
+        <v>0.2109</v>
       </c>
       <c r="F2474" t="n">
         <v>0</v>
@@ -50086,7 +50086,7 @@
         <v>14</v>
       </c>
       <c r="E2475" t="n">
-        <v>0.2394</v>
+        <v>0.2395</v>
       </c>
       <c r="F2475" t="n">
         <v>0</v>
@@ -50146,7 +50146,7 @@
         <v>15</v>
       </c>
       <c r="E2478" t="n">
-        <v>0.6137</v>
+        <v>0.6135</v>
       </c>
       <c r="F2478" t="n">
         <v>0</v>
@@ -50166,7 +50166,7 @@
         <v>15</v>
       </c>
       <c r="E2479" t="n">
-        <v>0.862</v>
+        <v>0.8619</v>
       </c>
       <c r="F2479" t="n">
         <v>0</v>
@@ -50346,7 +50346,7 @@
         <v>14</v>
       </c>
       <c r="E2488" t="n">
-        <v>0.273</v>
+        <v>0.2729</v>
       </c>
       <c r="F2488" t="n">
         <v>0.0001</v>
@@ -50366,7 +50366,7 @@
         <v>14</v>
       </c>
       <c r="E2489" t="n">
-        <v>0.3407</v>
+        <v>0.3406</v>
       </c>
       <c r="F2489" t="n">
         <v>0</v>
@@ -50546,10 +50546,10 @@
         <v>14</v>
       </c>
       <c r="E2498" t="n">
-        <v>0.009</v>
+        <v>0.0091</v>
       </c>
       <c r="F2498" t="n">
-        <v>0.6444</v>
+        <v>0.6362</v>
       </c>
     </row>
     <row r="2499">
@@ -50569,7 +50569,7 @@
         <v>0.017</v>
       </c>
       <c r="F2499" t="n">
-        <v>0.1933</v>
+        <v>0.1925</v>
       </c>
     </row>
     <row r="2500">
@@ -50706,10 +50706,10 @@
         <v>14</v>
       </c>
       <c r="E2506" t="n">
-        <v>0.09</v>
+        <v>0.0898</v>
       </c>
       <c r="F2506" t="n">
-        <v>0.6129</v>
+        <v>0.6155</v>
       </c>
     </row>
     <row r="2507">
@@ -50726,10 +50726,10 @@
         <v>14</v>
       </c>
       <c r="E2507" t="n">
-        <v>0.0864</v>
+        <v>0.0865</v>
       </c>
       <c r="F2507" t="n">
-        <v>0.6642</v>
+        <v>0.6633</v>
       </c>
     </row>
     <row r="2508">
@@ -50826,7 +50826,7 @@
         <v>14</v>
       </c>
       <c r="E2512" t="n">
-        <v>0.2589</v>
+        <v>0.2588</v>
       </c>
       <c r="F2512" t="n">
         <v>0.0001</v>
@@ -50846,7 +50846,7 @@
         <v>14</v>
       </c>
       <c r="E2513" t="n">
-        <v>0.2832</v>
+        <v>0.2833</v>
       </c>
       <c r="F2513" t="n">
         <v>0</v>
@@ -50906,7 +50906,7 @@
         <v>14</v>
       </c>
       <c r="E2516" t="n">
-        <v>0.1887</v>
+        <v>0.1885</v>
       </c>
       <c r="F2516" t="n">
         <v>0</v>
@@ -50926,7 +50926,7 @@
         <v>14</v>
       </c>
       <c r="E2517" t="n">
-        <v>0.1741</v>
+        <v>0.1742</v>
       </c>
       <c r="F2517" t="n">
         <v>0.0016</v>
@@ -51006,7 +51006,7 @@
         <v>15</v>
       </c>
       <c r="E2521" t="n">
-        <v>0.5916</v>
+        <v>0.5917</v>
       </c>
       <c r="F2521" t="n">
         <v>0</v>
@@ -51186,7 +51186,7 @@
         <v>14</v>
       </c>
       <c r="E2530" t="n">
-        <v>0.27</v>
+        <v>0.2701</v>
       </c>
       <c r="F2530" t="n">
         <v>0</v>
@@ -51206,7 +51206,7 @@
         <v>14</v>
       </c>
       <c r="E2531" t="n">
-        <v>0.2363</v>
+        <v>0.2361</v>
       </c>
       <c r="F2531" t="n">
         <v>0.0005</v>
@@ -51386,10 +51386,10 @@
         <v>14</v>
       </c>
       <c r="E2540" t="n">
-        <v>0.0254</v>
+        <v>0.0256</v>
       </c>
       <c r="F2540" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="2541">
@@ -51409,7 +51409,7 @@
         <v>0.0066</v>
       </c>
       <c r="F2541" t="n">
-        <v>0.9742</v>
+        <v>0.9749</v>
       </c>
     </row>
     <row r="2542">
@@ -51566,10 +51566,10 @@
         <v>14</v>
       </c>
       <c r="E2549" t="n">
-        <v>0.0619</v>
+        <v>0.062</v>
       </c>
       <c r="F2549" t="n">
-        <v>0.936</v>
+        <v>0.9357</v>
       </c>
     </row>
     <row r="2550">
@@ -51686,10 +51686,10 @@
         <v>14</v>
       </c>
       <c r="E2555" t="n">
-        <v>0.2002</v>
+        <v>0.2004</v>
       </c>
       <c r="F2555" t="n">
-        <v>0.0049</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="2556">
@@ -51766,7 +51766,7 @@
         <v>14</v>
       </c>
       <c r="E2559" t="n">
-        <v>0.1759</v>
+        <v>0.176</v>
       </c>
       <c r="F2559" t="n">
         <v>0.0004</v>
@@ -51846,7 +51846,7 @@
         <v>15</v>
       </c>
       <c r="E2563" t="n">
-        <v>0.6609</v>
+        <v>0.6608</v>
       </c>
       <c r="F2563" t="n">
         <v>0</v>
@@ -52026,7 +52026,7 @@
         <v>14</v>
       </c>
       <c r="E2572" t="n">
-        <v>0.2922</v>
+        <v>0.292</v>
       </c>
       <c r="F2572" t="n">
         <v>0</v>
@@ -52046,7 +52046,7 @@
         <v>14</v>
       </c>
       <c r="E2573" t="n">
-        <v>0.3995</v>
+        <v>0.3996</v>
       </c>
       <c r="F2573" t="n">
         <v>0</v>
@@ -52246,10 +52246,10 @@
         <v>14</v>
       </c>
       <c r="E2583" t="n">
-        <v>0.0173</v>
+        <v>0.0177</v>
       </c>
       <c r="F2583" t="n">
-        <v>0.1161</v>
+        <v>0.1018</v>
       </c>
     </row>
     <row r="2584">
@@ -52386,10 +52386,10 @@
         <v>14</v>
       </c>
       <c r="E2590" t="n">
-        <v>0.0699</v>
+        <v>0.0698</v>
       </c>
       <c r="F2590" t="n">
-        <v>0.8629</v>
+        <v>0.8632</v>
       </c>
     </row>
     <row r="2591">
@@ -52409,7 +52409,7 @@
         <v>0.0627</v>
       </c>
       <c r="F2591" t="n">
-        <v>0.9329</v>
+        <v>0.9335</v>
       </c>
     </row>
     <row r="2592">
@@ -52506,7 +52506,7 @@
         <v>14</v>
       </c>
       <c r="E2596" t="n">
-        <v>0.2157</v>
+        <v>0.2158</v>
       </c>
       <c r="F2596" t="n">
         <v>0.002</v>
@@ -52586,7 +52586,7 @@
         <v>14</v>
       </c>
       <c r="E2600" t="n">
-        <v>0.1494</v>
+        <v>0.1493</v>
       </c>
       <c r="F2600" t="n">
         <v>0.0017</v>
@@ -52686,7 +52686,7 @@
         <v>15</v>
       </c>
       <c r="E2605" t="n">
-        <v>0.6479</v>
+        <v>0.6482</v>
       </c>
       <c r="F2605" t="n">
         <v>0</v>
@@ -52866,7 +52866,7 @@
         <v>14</v>
       </c>
       <c r="E2614" t="n">
-        <v>0.3766</v>
+        <v>0.3765</v>
       </c>
       <c r="F2614" t="n">
         <v>0</v>
@@ -52886,7 +52886,7 @@
         <v>14</v>
       </c>
       <c r="E2615" t="n">
-        <v>0.2739</v>
+        <v>0.2736</v>
       </c>
       <c r="F2615" t="n">
         <v>0</v>
@@ -53066,7 +53066,7 @@
         <v>14</v>
       </c>
       <c r="E2624" t="n">
-        <v>0.0399</v>
+        <v>0.0398</v>
       </c>
       <c r="F2624" t="n">
         <v>0</v>
@@ -53086,10 +53086,10 @@
         <v>14</v>
       </c>
       <c r="E2625" t="n">
-        <v>0.0166</v>
+        <v>0.0169</v>
       </c>
       <c r="F2625" t="n">
-        <v>0.1395</v>
+        <v>0.1264</v>
       </c>
     </row>
     <row r="2626">
@@ -53226,10 +53226,10 @@
         <v>14</v>
       </c>
       <c r="E2632" t="n">
-        <v>0.0804</v>
+        <v>0.0803</v>
       </c>
       <c r="F2632" t="n">
-        <v>0.7168</v>
+        <v>0.7195</v>
       </c>
     </row>
     <row r="2633">
@@ -53246,10 +53246,10 @@
         <v>14</v>
       </c>
       <c r="E2633" t="n">
-        <v>0.0549</v>
+        <v>0.0552</v>
       </c>
       <c r="F2633" t="n">
-        <v>0.9776</v>
+        <v>0.9762</v>
       </c>
     </row>
     <row r="2634">
@@ -53346,7 +53346,7 @@
         <v>14</v>
       </c>
       <c r="E2638" t="n">
-        <v>0.2352</v>
+        <v>0.2353</v>
       </c>
       <c r="F2638" t="n">
         <v>0.0005</v>
@@ -53366,10 +53366,10 @@
         <v>14</v>
       </c>
       <c r="E2639" t="n">
-        <v>0.1874</v>
+        <v>0.1878</v>
       </c>
       <c r="F2639" t="n">
-        <v>0.0103</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="2640">
@@ -53426,7 +53426,7 @@
         <v>14</v>
       </c>
       <c r="E2642" t="n">
-        <v>0.1976</v>
+        <v>0.1974</v>
       </c>
       <c r="F2642" t="n">
         <v>0</v>
@@ -53446,10 +53446,10 @@
         <v>14</v>
       </c>
       <c r="E2643" t="n">
-        <v>0.1582</v>
+        <v>0.1579</v>
       </c>
       <c r="F2643" t="n">
-        <v>0.0033</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="2644">
@@ -53506,7 +53506,7 @@
         <v>15</v>
       </c>
       <c r="E2646" t="n">
-        <v>0.516</v>
+        <v>0.5162</v>
       </c>
       <c r="F2646" t="n">
         <v>0</v>
@@ -53526,7 +53526,7 @@
         <v>15</v>
       </c>
       <c r="E2647" t="n">
-        <v>0.7188</v>
+        <v>0.7184</v>
       </c>
       <c r="F2647" t="n">
         <v>0</v>
@@ -53706,7 +53706,7 @@
         <v>14</v>
       </c>
       <c r="E2656" t="n">
-        <v>0.3101</v>
+        <v>0.31</v>
       </c>
       <c r="F2656" t="n">
         <v>0</v>
@@ -53906,10 +53906,10 @@
         <v>14</v>
       </c>
       <c r="E2666" t="n">
-        <v>0.0217</v>
+        <v>0.0219</v>
       </c>
       <c r="F2666" t="n">
-        <v>0.0021</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="2667">
@@ -53929,7 +53929,7 @@
         <v>0.0116</v>
       </c>
       <c r="F2667" t="n">
-        <v>0.5758</v>
+        <v>0.5696</v>
       </c>
     </row>
     <row r="2668">
@@ -54066,10 +54066,10 @@
         <v>14</v>
       </c>
       <c r="E2674" t="n">
-        <v>0.0832</v>
+        <v>0.0835</v>
       </c>
       <c r="F2674" t="n">
-        <v>0.6932</v>
+        <v>0.6886</v>
       </c>
     </row>
     <row r="2675">
@@ -54086,10 +54086,10 @@
         <v>14</v>
       </c>
       <c r="E2675" t="n">
-        <v>0.0569</v>
+        <v>0.057</v>
       </c>
       <c r="F2675" t="n">
-        <v>0.9719</v>
+        <v>0.9714</v>
       </c>
     </row>
     <row r="2676">
@@ -54186,10 +54186,10 @@
         <v>14</v>
       </c>
       <c r="E2680" t="n">
-        <v>0.1975</v>
+        <v>0.1977</v>
       </c>
       <c r="F2680" t="n">
-        <v>0.0067</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="2681">
@@ -54206,10 +54206,10 @@
         <v>14</v>
       </c>
       <c r="E2681" t="n">
-        <v>0.1461</v>
+        <v>0.1462</v>
       </c>
       <c r="F2681" t="n">
-        <v>0.0887</v>
+        <v>0.0884</v>
       </c>
     </row>
     <row r="2682">
@@ -54266,7 +54266,7 @@
         <v>14</v>
       </c>
       <c r="E2684" t="n">
-        <v>0.1824</v>
+        <v>0.1823</v>
       </c>
       <c r="F2684" t="n">
         <v>0.0001</v>
@@ -54286,10 +54286,10 @@
         <v>14</v>
       </c>
       <c r="E2685" t="n">
-        <v>0.1332</v>
+        <v>0.1331</v>
       </c>
       <c r="F2685" t="n">
-        <v>0.0199</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="2686">
@@ -54346,7 +54346,7 @@
         <v>15</v>
       </c>
       <c r="E2688" t="n">
-        <v>0.5133</v>
+        <v>0.5132</v>
       </c>
       <c r="F2688" t="n">
         <v>0</v>
@@ -54366,7 +54366,7 @@
         <v>15</v>
       </c>
       <c r="E2689" t="n">
-        <v>0.6427</v>
+        <v>0.6426</v>
       </c>
       <c r="F2689" t="n">
         <v>0</v>
@@ -54546,7 +54546,7 @@
         <v>14</v>
       </c>
       <c r="E2698" t="n">
-        <v>0.3246</v>
+        <v>0.3242</v>
       </c>
       <c r="F2698" t="n">
         <v>0</v>
@@ -54566,7 +54566,7 @@
         <v>14</v>
       </c>
       <c r="E2699" t="n">
-        <v>0.3428</v>
+        <v>0.3432</v>
       </c>
       <c r="F2699" t="n">
         <v>0</v>
@@ -54746,10 +54746,10 @@
         <v>14</v>
       </c>
       <c r="E2708" t="n">
-        <v>0.0116</v>
+        <v>0.012</v>
       </c>
       <c r="F2708" t="n">
-        <v>0.3143</v>
+        <v>0.2834</v>
       </c>
     </row>
     <row r="2709">
@@ -54766,10 +54766,10 @@
         <v>14</v>
       </c>
       <c r="E2709" t="n">
-        <v>0.0083</v>
+        <v>0.0081</v>
       </c>
       <c r="F2709" t="n">
-        <v>0.9283</v>
+        <v>0.9416</v>
       </c>
     </row>
     <row r="2710">
@@ -54906,10 +54906,10 @@
         <v>14</v>
       </c>
       <c r="E2716" t="n">
-        <v>0.0675</v>
+        <v>0.0673</v>
       </c>
       <c r="F2716" t="n">
-        <v>0.8931</v>
+        <v>0.8954</v>
       </c>
     </row>
     <row r="2717">
@@ -54926,10 +54926,10 @@
         <v>14</v>
       </c>
       <c r="E2717" t="n">
-        <v>0.0586</v>
+        <v>0.0588</v>
       </c>
       <c r="F2717" t="n">
-        <v>0.9637</v>
+        <v>0.9626</v>
       </c>
     </row>
     <row r="2718">
@@ -55026,10 +55026,10 @@
         <v>14</v>
       </c>
       <c r="E2722" t="n">
-        <v>0.1904</v>
+        <v>0.1907</v>
       </c>
       <c r="F2722" t="n">
-        <v>0.0116</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="2723">
@@ -55046,7 +55046,7 @@
         <v>14</v>
       </c>
       <c r="E2723" t="n">
-        <v>0.2359</v>
+        <v>0.2356</v>
       </c>
       <c r="F2723" t="n">
         <v>0.0007</v>
@@ -55106,7 +55106,7 @@
         <v>14</v>
       </c>
       <c r="E2726" t="n">
-        <v>0.1797</v>
+        <v>0.1801</v>
       </c>
       <c r="F2726" t="n">
         <v>0.0001</v>
@@ -55126,10 +55126,10 @@
         <v>14</v>
       </c>
       <c r="E2727" t="n">
-        <v>0.1738</v>
+        <v>0.1742</v>
       </c>
       <c r="F2727" t="n">
-        <v>0.0013</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="2728">
@@ -55186,7 +55186,7 @@
         <v>15</v>
       </c>
       <c r="E2730" t="n">
-        <v>0.4893</v>
+        <v>0.4894</v>
       </c>
       <c r="F2730" t="n">
         <v>0</v>
@@ -55386,7 +55386,7 @@
         <v>14</v>
       </c>
       <c r="E2740" t="n">
-        <v>0.2462</v>
+        <v>0.2458</v>
       </c>
       <c r="F2740" t="n">
         <v>0.0003</v>
@@ -55586,7 +55586,7 @@
         <v>14</v>
       </c>
       <c r="E2750" t="n">
-        <v>0.0712</v>
+        <v>0.0715</v>
       </c>
       <c r="F2750" t="n">
         <v>0</v>
@@ -55606,10 +55606,10 @@
         <v>14</v>
       </c>
       <c r="E2751" t="n">
-        <v>0.0203</v>
+        <v>0.0205</v>
       </c>
       <c r="F2751" t="n">
-        <v>0.0469</v>
+        <v>0.0446</v>
       </c>
     </row>
     <row r="2752">
@@ -55746,10 +55746,10 @@
         <v>14</v>
       </c>
       <c r="E2758" t="n">
-        <v>0.0842</v>
+        <v>0.0838</v>
       </c>
       <c r="F2758" t="n">
-        <v>0.6867</v>
+        <v>0.6932</v>
       </c>
     </row>
     <row r="2759">
@@ -55766,10 +55766,10 @@
         <v>14</v>
       </c>
       <c r="E2759" t="n">
-        <v>0.0796</v>
+        <v>0.0795</v>
       </c>
       <c r="F2759" t="n">
-        <v>0.7519</v>
+        <v>0.7524</v>
       </c>
     </row>
     <row r="2760">
@@ -55866,7 +55866,7 @@
         <v>14</v>
       </c>
       <c r="E2764" t="n">
-        <v>0.2601</v>
+        <v>0.2597</v>
       </c>
       <c r="F2764" t="n">
         <v>0.0001</v>
@@ -55886,10 +55886,10 @@
         <v>14</v>
       </c>
       <c r="E2765" t="n">
-        <v>0.1688</v>
+        <v>0.1687</v>
       </c>
       <c r="F2765" t="n">
-        <v>0.0331</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="2766">
@@ -55946,7 +55946,7 @@
         <v>14</v>
       </c>
       <c r="E2768" t="n">
-        <v>0.2167</v>
+        <v>0.217</v>
       </c>
       <c r="F2768" t="n">
         <v>0</v>
@@ -56026,7 +56026,7 @@
         <v>15</v>
       </c>
       <c r="E2772" t="n">
-        <v>0.5908</v>
+        <v>0.5903</v>
       </c>
       <c r="F2772" t="n">
         <v>0</v>
@@ -56046,7 +56046,7 @@
         <v>15</v>
       </c>
       <c r="E2773" t="n">
-        <v>0.7749</v>
+        <v>0.7747</v>
       </c>
       <c r="F2773" t="n">
         <v>0</v>
@@ -56226,7 +56226,7 @@
         <v>14</v>
       </c>
       <c r="E2782" t="n">
-        <v>0.2493</v>
+        <v>0.2495</v>
       </c>
       <c r="F2782" t="n">
         <v>0.0004</v>
@@ -56246,7 +56246,7 @@
         <v>14</v>
       </c>
       <c r="E2783" t="n">
-        <v>0.3353</v>
+        <v>0.3354</v>
       </c>
       <c r="F2783" t="n">
         <v>0</v>
@@ -56426,7 +56426,7 @@
         <v>14</v>
       </c>
       <c r="E2792" t="n">
-        <v>0.0474</v>
+        <v>0.0473</v>
       </c>
       <c r="F2792" t="n">
         <v>0</v>
@@ -56446,10 +56446,10 @@
         <v>14</v>
       </c>
       <c r="E2793" t="n">
-        <v>0.0214</v>
+        <v>0.0213</v>
       </c>
       <c r="F2793" t="n">
-        <v>0.0226</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="2794">
@@ -56586,10 +56586,10 @@
         <v>14</v>
       </c>
       <c r="E2800" t="n">
-        <v>0.0854</v>
+        <v>0.0855</v>
       </c>
       <c r="F2800" t="n">
-        <v>0.704</v>
+        <v>0.7029</v>
       </c>
     </row>
     <row r="2801">
@@ -56606,10 +56606,10 @@
         <v>14</v>
       </c>
       <c r="E2801" t="n">
-        <v>0.0539</v>
+        <v>0.054</v>
       </c>
       <c r="F2801" t="n">
-        <v>0.989</v>
+        <v>0.9887</v>
       </c>
     </row>
     <row r="2802">
@@ -56726,10 +56726,10 @@
         <v>14</v>
       </c>
       <c r="E2807" t="n">
-        <v>0.203</v>
+        <v>0.2031</v>
       </c>
       <c r="F2807" t="n">
-        <v>0.0074</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="2808">
@@ -56786,7 +56786,7 @@
         <v>14</v>
       </c>
       <c r="E2810" t="n">
-        <v>0.1984</v>
+        <v>0.1987</v>
       </c>
       <c r="F2810" t="n">
         <v>0</v>
@@ -56806,7 +56806,7 @@
         <v>14</v>
       </c>
       <c r="E2811" t="n">
-        <v>0.1653</v>
+        <v>0.1651</v>
       </c>
       <c r="F2811" t="n">
         <v>0.0022</v>
@@ -56866,7 +56866,7 @@
         <v>15</v>
       </c>
       <c r="E2814" t="n">
-        <v>0.5141</v>
+        <v>0.5139</v>
       </c>
       <c r="F2814" t="n">
         <v>0</v>
@@ -57086,7 +57086,7 @@
         <v>14</v>
       </c>
       <c r="E2825" t="n">
-        <v>0.3098</v>
+        <v>0.3099</v>
       </c>
       <c r="F2825" t="n">
         <v>0</v>
@@ -57266,10 +57266,10 @@
         <v>14</v>
       </c>
       <c r="E2834" t="n">
-        <v>0.0113</v>
+        <v>0.0114</v>
       </c>
       <c r="F2834" t="n">
-        <v>0.3757</v>
+        <v>0.3675</v>
       </c>
     </row>
     <row r="2835">
@@ -57289,7 +57289,7 @@
         <v>0.0163</v>
       </c>
       <c r="F2835" t="n">
-        <v>0.1856</v>
+        <v>0.1899</v>
       </c>
     </row>
     <row r="2836">
@@ -57426,10 +57426,10 @@
         <v>14</v>
       </c>
       <c r="E2842" t="n">
-        <v>0.0888</v>
+        <v>0.0887</v>
       </c>
       <c r="F2842" t="n">
-        <v>0.6483</v>
+        <v>0.6495</v>
       </c>
     </row>
     <row r="2843">
@@ -57449,7 +57449,7 @@
         <v>0.0692</v>
       </c>
       <c r="F2843" t="n">
-        <v>0.8957</v>
+        <v>0.8954</v>
       </c>
     </row>
     <row r="2844">
@@ -57566,10 +57566,10 @@
         <v>14</v>
       </c>
       <c r="E2849" t="n">
-        <v>0.1577</v>
+        <v>0.1576</v>
       </c>
       <c r="F2849" t="n">
-        <v>0.0647</v>
+        <v>0.0649</v>
       </c>
     </row>
     <row r="2850">
@@ -57706,7 +57706,7 @@
         <v>15</v>
       </c>
       <c r="E2856" t="n">
-        <v>0.5581</v>
+        <v>0.558</v>
       </c>
       <c r="F2856" t="n">
         <v>0</v>
@@ -57726,7 +57726,7 @@
         <v>15</v>
       </c>
       <c r="E2857" t="n">
-        <v>0.5534</v>
+        <v>0.5533</v>
       </c>
       <c r="F2857" t="n">
         <v>0</v>
